--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY44"/>
+  <dimension ref="A1:AY51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178569</v>
+        <v>112178565</v>
       </c>
       <c r="B2" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748176.4270214032</v>
+        <v>748187.034524853</v>
       </c>
       <c r="R2" t="n">
-        <v>7240731.132622059</v>
+        <v>7240670.440547518</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178559</v>
+        <v>112178583</v>
       </c>
       <c r="B3" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748250.9269114911</v>
+        <v>748268.3710616929</v>
       </c>
       <c r="R3" t="n">
-        <v>7240623.942822521</v>
+        <v>7240657.473556087</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,21 +892,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -927,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112178551</v>
+        <v>112178585</v>
       </c>
       <c r="B4" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -939,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -967,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>748332.0812077799</v>
+        <v>748287.6350774727</v>
       </c>
       <c r="R4" t="n">
-        <v>7240583.12002639</v>
+        <v>7240649.396219393</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,10 +1028,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178550</v>
+        <v>112178593</v>
       </c>
       <c r="B5" t="n">
-        <v>90666</v>
+        <v>88032</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,25 +1040,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1083,10 +1068,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748334.5407367183</v>
+        <v>748333.9472725405</v>
       </c>
       <c r="R5" t="n">
-        <v>7240568.984735451</v>
+        <v>7240606.057026055</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1159,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112178563</v>
+        <v>112178561</v>
       </c>
       <c r="B6" t="n">
-        <v>90682</v>
+        <v>90854</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1175,21 +1160,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1199,10 +1184,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748226.8778626262</v>
+        <v>748249.7394949989</v>
       </c>
       <c r="R6" t="n">
-        <v>7240628.664105742</v>
+        <v>7240622.999005239</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1255,6 +1240,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178568</v>
+        <v>112178577</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90300</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748172.9620312381</v>
+        <v>748253.7986305832</v>
       </c>
       <c r="R8" t="n">
-        <v>7240697.094641659</v>
+        <v>7240695.052907013</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1522,10 +1522,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178579</v>
+        <v>112178563</v>
       </c>
       <c r="B9" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1538,21 +1538,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1562,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748251.1856954921</v>
+        <v>748226.8778626262</v>
       </c>
       <c r="R9" t="n">
-        <v>7240685.974139915</v>
+        <v>7240628.664105742</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178576</v>
+        <v>112178562</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>89672</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1650,25 +1650,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>71</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748240.5425830974</v>
+        <v>748242.7472170357</v>
       </c>
       <c r="R10" t="n">
-        <v>7240707.011551805</v>
+        <v>7240625.784013888</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,6 +1726,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1734,6 +1739,21 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1754,10 +1774,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178577</v>
+        <v>112178571</v>
       </c>
       <c r="B11" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1770,21 +1790,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1794,10 +1814,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748253.7986305832</v>
+        <v>748199.4553894358</v>
       </c>
       <c r="R11" t="n">
-        <v>7240695.052907013</v>
+        <v>7240733.496161642</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1870,7 +1890,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178581</v>
+        <v>112178558</v>
       </c>
       <c r="B12" t="n">
         <v>90658</v>
@@ -1910,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748260.2130672592</v>
+        <v>748268.9683343841</v>
       </c>
       <c r="R12" t="n">
-        <v>7240674.080609731</v>
+        <v>7240615.34029606</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1986,10 +2006,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178585</v>
+        <v>112178595</v>
       </c>
       <c r="B13" t="n">
-        <v>90666</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1998,25 +2018,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2026,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748287.6350774727</v>
+        <v>748365.5830737479</v>
       </c>
       <c r="R13" t="n">
-        <v>7240649.396219393</v>
+        <v>7240561.479343918</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2102,10 +2122,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178583</v>
+        <v>112178584</v>
       </c>
       <c r="B14" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2114,25 +2134,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2142,10 +2162,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748268.3710616929</v>
+        <v>748269.3157457039</v>
       </c>
       <c r="R14" t="n">
-        <v>7240657.473556087</v>
+        <v>7240656.287733501</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,7 +2238,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178558</v>
+        <v>112178552</v>
       </c>
       <c r="B15" t="n">
         <v>90658</v>
@@ -2258,10 +2278,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>748268.9683343841</v>
+        <v>748326.3421591006</v>
       </c>
       <c r="R15" t="n">
-        <v>7240615.34029606</v>
+        <v>7240591.072769734</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2334,10 +2354,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178561</v>
+        <v>112178559</v>
       </c>
       <c r="B16" t="n">
-        <v>90854</v>
+        <v>88489</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2350,21 +2370,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2079</v>
+        <v>1962</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2374,10 +2394,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748249.7394949989</v>
+        <v>748250.9269114911</v>
       </c>
       <c r="R16" t="n">
-        <v>7240622.999005239</v>
+        <v>7240623.942822521</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2465,10 +2485,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178580</v>
+        <v>112178569</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>90666</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2477,25 +2497,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2505,10 +2525,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748254.9643746315</v>
+        <v>748176.4270214032</v>
       </c>
       <c r="R17" t="n">
-        <v>7240681.230878154</v>
+        <v>7240731.132622059</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2581,10 +2601,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178593</v>
+        <v>112178576</v>
       </c>
       <c r="B18" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2593,25 +2613,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2621,10 +2641,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748333.9472725405</v>
+        <v>748240.5425830974</v>
       </c>
       <c r="R18" t="n">
-        <v>7240606.057026055</v>
+        <v>7240707.011551805</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2697,10 +2717,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178555</v>
+        <v>112178564</v>
       </c>
       <c r="B19" t="n">
-        <v>78107</v>
+        <v>90678</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2709,25 +2729,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2737,10 +2757,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748314.2067523072</v>
+        <v>748188.3985188152</v>
       </c>
       <c r="R19" t="n">
-        <v>7240599.751442607</v>
+        <v>7240669.290065946</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2813,10 +2833,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178578</v>
+        <v>112178579</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2825,25 +2845,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2853,10 +2873,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748253.8692816154</v>
+        <v>748251.1856954921</v>
       </c>
       <c r="R20" t="n">
-        <v>7240694.21521014</v>
+        <v>7240685.974139915</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2929,10 +2949,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178595</v>
+        <v>112178590</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2945,21 +2965,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2969,10 +2989,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748365.5830737479</v>
+        <v>748308.887140439</v>
       </c>
       <c r="R21" t="n">
-        <v>7240561.479343918</v>
+        <v>7240607.739542886</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3045,10 +3065,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178567</v>
+        <v>112178555</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>78107</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3061,21 +3081,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3085,10 +3105,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748176.9215640699</v>
+        <v>748314.2067523072</v>
       </c>
       <c r="R22" t="n">
-        <v>7240685.195521547</v>
+        <v>7240599.751442607</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3161,10 +3181,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178556</v>
+        <v>112178582</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>88489</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3177,21 +3197,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3201,10 +3221,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748311.2359062488</v>
+        <v>748264.2390635755</v>
       </c>
       <c r="R23" t="n">
-        <v>7240599.92267567</v>
+        <v>7240666.405371635</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3257,6 +3277,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3277,10 +3312,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178582</v>
+        <v>112178568</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3289,25 +3324,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3317,10 +3352,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748264.2390635755</v>
+        <v>748172.9620312381</v>
       </c>
       <c r="R24" t="n">
-        <v>7240666.405371635</v>
+        <v>7240697.094641659</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3373,21 +3408,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3408,10 +3428,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178587</v>
+        <v>112178551</v>
       </c>
       <c r="B25" t="n">
-        <v>78081</v>
+        <v>88032</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3420,25 +3440,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229821</v>
+        <v>6276</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3448,10 +3468,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748309.0545249605</v>
+        <v>748332.0812077799</v>
       </c>
       <c r="R25" t="n">
-        <v>7240615.768639596</v>
+        <v>7240583.12002639</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3504,21 +3524,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3539,10 +3544,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178553</v>
+        <v>112178581</v>
       </c>
       <c r="B26" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3551,25 +3556,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3579,10 +3584,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748324.2453580573</v>
+        <v>748260.2130672592</v>
       </c>
       <c r="R26" t="n">
-        <v>7240590.89588304</v>
+        <v>7240674.080609731</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3655,10 +3660,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178570</v>
+        <v>112178566</v>
       </c>
       <c r="B27" t="n">
-        <v>90300</v>
+        <v>90682</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3671,21 +3676,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4745</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3695,10 +3700,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>748188.3406613012</v>
+        <v>748179.0182960301</v>
       </c>
       <c r="R27" t="n">
-        <v>7240735.089884196</v>
+        <v>7240685.372304448</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3771,10 +3776,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178589</v>
+        <v>112178554</v>
       </c>
       <c r="B28" t="n">
-        <v>90682</v>
+        <v>88032</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3783,25 +3788,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3811,10 +3816,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748304.0575775182</v>
+        <v>748323.3006321697</v>
       </c>
       <c r="R28" t="n">
-        <v>7240614.925283005</v>
+        <v>7240592.081718579</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3887,10 +3892,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178591</v>
+        <v>112178570</v>
       </c>
       <c r="B29" t="n">
-        <v>90670</v>
+        <v>90300</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3899,25 +3904,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4365</v>
+        <v>4745</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3927,10 +3932,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748308.887140439</v>
+        <v>748188.3406613012</v>
       </c>
       <c r="R29" t="n">
-        <v>7240607.739542886</v>
+        <v>7240735.089884196</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4003,10 +4008,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178590</v>
+        <v>112178596</v>
       </c>
       <c r="B30" t="n">
-        <v>88489</v>
+        <v>90658</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4019,21 +4024,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4043,10 +4048,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748308.887140439</v>
+        <v>748365.5619142037</v>
       </c>
       <c r="R30" t="n">
-        <v>7240607.739542886</v>
+        <v>7240546.712791221</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4119,10 +4124,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178592</v>
+        <v>112178591</v>
       </c>
       <c r="B31" t="n">
-        <v>90712</v>
+        <v>90670</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4135,21 +4140,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>232140</v>
+        <v>4365</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4159,10 +4164,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748309.9685472599</v>
+        <v>748308.887140439</v>
       </c>
       <c r="R31" t="n">
-        <v>7240609.93997206</v>
+        <v>7240607.739542886</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4205,11 +4210,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4240,10 +4240,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178562</v>
+        <v>112178567</v>
       </c>
       <c r="B32" t="n">
-        <v>89672</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4252,25 +4252,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>71</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4280,10 +4280,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748242.7472170357</v>
+        <v>748176.9215640699</v>
       </c>
       <c r="R32" t="n">
-        <v>7240625.784013888</v>
+        <v>7240685.195521547</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4328,11 +4328,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
-        </is>
-      </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
@@ -4341,21 +4336,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4376,10 +4356,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178554</v>
+        <v>112178592</v>
       </c>
       <c r="B33" t="n">
-        <v>88032</v>
+        <v>90712</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4392,21 +4372,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6276</v>
+        <v>232140</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4416,10 +4396,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748323.3006321697</v>
+        <v>748309.9685472599</v>
       </c>
       <c r="R33" t="n">
-        <v>7240592.081718579</v>
+        <v>7240609.93997206</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4462,6 +4442,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4492,10 +4477,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178596</v>
+        <v>112178574</v>
       </c>
       <c r="B34" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4504,25 +4489,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4532,10 +4517,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748365.5619142037</v>
+        <v>748215.5893916707</v>
       </c>
       <c r="R34" t="n">
-        <v>7240546.712791221</v>
+        <v>7240707.438168486</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4608,10 +4593,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178594</v>
+        <v>112178580</v>
       </c>
       <c r="B35" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4624,21 +4609,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4648,10 +4633,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748341.8844330829</v>
+        <v>748254.9643746315</v>
       </c>
       <c r="R35" t="n">
-        <v>7240602.086374523</v>
+        <v>7240681.230878154</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4724,10 +4709,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178560</v>
+        <v>112178578</v>
       </c>
       <c r="B36" t="n">
-        <v>90670</v>
+        <v>90678</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4736,25 +4721,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4764,10 +4749,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748250.5782058965</v>
+        <v>748253.8692816154</v>
       </c>
       <c r="R36" t="n">
-        <v>7240623.069738661</v>
+        <v>7240694.21521014</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4840,10 +4825,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178565</v>
+        <v>112178556</v>
       </c>
       <c r="B37" t="n">
-        <v>90682</v>
+        <v>77268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4856,21 +4841,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2059</v>
+        <v>228912</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4880,10 +4865,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748187.034524853</v>
+        <v>748311.2359062488</v>
       </c>
       <c r="R37" t="n">
-        <v>7240670.440547518</v>
+        <v>7240599.92267567</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4956,10 +4941,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178571</v>
+        <v>112178594</v>
       </c>
       <c r="B38" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4972,21 +4957,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4996,10 +4981,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748199.4553894358</v>
+        <v>748341.8844330829</v>
       </c>
       <c r="R38" t="n">
-        <v>7240733.496161642</v>
+        <v>7240602.086374523</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5072,10 +5057,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178564</v>
+        <v>112178587</v>
       </c>
       <c r="B39" t="n">
-        <v>90678</v>
+        <v>78081</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5084,25 +5069,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4366</v>
+        <v>229821</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5112,10 +5097,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748188.3985188152</v>
+        <v>748309.0545249605</v>
       </c>
       <c r="R39" t="n">
-        <v>7240669.290065946</v>
+        <v>7240615.768639596</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5168,6 +5153,21 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5188,10 +5188,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178584</v>
+        <v>112178550</v>
       </c>
       <c r="B40" t="n">
-        <v>90678</v>
+        <v>90666</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5204,21 +5204,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5228,10 +5228,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748269.3157457039</v>
+        <v>748334.5407367183</v>
       </c>
       <c r="R40" t="n">
-        <v>7240656.287733501</v>
+        <v>7240568.984735451</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5304,10 +5304,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178588</v>
+        <v>112178553</v>
       </c>
       <c r="B41" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5316,25 +5316,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748304.0575775182</v>
+        <v>748324.2453580573</v>
       </c>
       <c r="R41" t="n">
-        <v>7240614.925283005</v>
+        <v>7240590.89588304</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5420,10 +5420,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178574</v>
+        <v>112178588</v>
       </c>
       <c r="B42" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5432,25 +5432,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5460,10 +5460,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>748215.5893916707</v>
+        <v>748304.0575775182</v>
       </c>
       <c r="R42" t="n">
-        <v>7240707.438168486</v>
+        <v>7240614.925283005</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178552</v>
+        <v>112178589</v>
       </c>
       <c r="B43" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5552,21 +5552,21 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5576,10 +5576,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748326.3421591006</v>
+        <v>748304.0575775182</v>
       </c>
       <c r="R43" t="n">
-        <v>7240591.072769734</v>
+        <v>7240614.925283005</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5652,10 +5652,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178566</v>
+        <v>112178560</v>
       </c>
       <c r="B44" t="n">
-        <v>90682</v>
+        <v>90670</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5664,25 +5664,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5692,10 +5692,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748179.0182960301</v>
+        <v>748250.5782058965</v>
       </c>
       <c r="R44" t="n">
-        <v>7240685.372304448</v>
+        <v>7240623.069738661</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5765,6 +5765,853 @@
           <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>112182055</v>
+      </c>
+      <c r="B45" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>748349.5412028243</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7240561.391435981</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>112181991</v>
+      </c>
+      <c r="B46" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>748208.5029369708</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7240816.513055791</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>112181969</v>
+      </c>
+      <c r="B47" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>748312.6074345136</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7240628.723534348</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>112182293</v>
+      </c>
+      <c r="B48" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>748041.384462429</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7240905.344132535</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>112182095</v>
+      </c>
+      <c r="B49" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>748367.5833346483</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7240552.789260096</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>112182217</v>
+      </c>
+      <c r="B50" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>748235.9035450997</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7240696.918314887</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-08-25</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>112182102</v>
+      </c>
+      <c r="B51" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Grundträsk, Vb</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>747981.8210642082</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7240925.632436961</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Skellefteå</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Jörn</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-08-18</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Påträffad under Sveaskogs naturvärdesinventering</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Mimmi Persson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178565</v>
+        <v>112178578</v>
       </c>
       <c r="B2" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748187.034524853</v>
+        <v>748254</v>
       </c>
       <c r="R2" t="n">
-        <v>7240670.440547518</v>
+        <v>7240694</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +753,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178583</v>
+        <v>112178554</v>
       </c>
       <c r="B3" t="n">
-        <v>90652</v>
+        <v>88032</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748268.3710616929</v>
+        <v>748323</v>
       </c>
       <c r="R3" t="n">
-        <v>7240657.473556087</v>
+        <v>7240592</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,19 +859,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112178585</v>
+        <v>112178559</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>88489</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,25 +904,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -952,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>748287.6350774727</v>
+        <v>748251</v>
       </c>
       <c r="R4" t="n">
-        <v>7240649.396219393</v>
+        <v>7240624</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,21 +965,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1008,6 +978,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1028,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178593</v>
+        <v>112178558</v>
       </c>
       <c r="B5" t="n">
-        <v>88032</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1040,25 +1025,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1068,10 +1053,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748333.9472725405</v>
+        <v>748269</v>
       </c>
       <c r="R5" t="n">
-        <v>7240606.057026055</v>
+        <v>7240615</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1101,19 +1086,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1184,10 +1159,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748249.7394949989</v>
+        <v>748250</v>
       </c>
       <c r="R6" t="n">
-        <v>7240622.999005239</v>
+        <v>7240623</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1217,19 +1192,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1275,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178572</v>
+        <v>112178567</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,21 +1256,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1315,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748200.2940685774</v>
+        <v>748177</v>
       </c>
       <c r="R7" t="n">
-        <v>7240733.566881292</v>
+        <v>7240685</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1348,21 +1313,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1371,21 +1326,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1406,10 +1346,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178577</v>
+        <v>112178550</v>
       </c>
       <c r="B8" t="n">
-        <v>90300</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1358,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1446,10 +1386,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748253.7986305832</v>
+        <v>748335</v>
       </c>
       <c r="R8" t="n">
-        <v>7240695.052907013</v>
+        <v>7240569</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1479,19 +1419,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1522,7 +1452,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178563</v>
+        <v>112178565</v>
       </c>
       <c r="B9" t="n">
         <v>90682</v>
@@ -1562,10 +1492,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748226.8778626262</v>
+        <v>748187</v>
       </c>
       <c r="R9" t="n">
-        <v>7240628.664105742</v>
+        <v>7240670</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1595,19 +1525,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1638,10 +1558,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178562</v>
+        <v>112178580</v>
       </c>
       <c r="B10" t="n">
-        <v>89672</v>
+        <v>90660</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1650,25 +1570,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>4362</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1678,10 +1598,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748242.7472170357</v>
+        <v>748255</v>
       </c>
       <c r="R10" t="n">
-        <v>7240625.784013888</v>
+        <v>7240681</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,26 +1631,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1739,21 +1644,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1774,10 +1664,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178571</v>
+        <v>112178587</v>
       </c>
       <c r="B11" t="n">
-        <v>90652</v>
+        <v>78081</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1790,21 +1680,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3100</v>
+        <v>229821</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1814,10 +1704,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748199.4553894358</v>
+        <v>748309</v>
       </c>
       <c r="R11" t="n">
-        <v>7240733.496161642</v>
+        <v>7240616</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1847,21 +1737,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1870,6 +1750,21 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1890,10 +1785,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178558</v>
+        <v>112178582</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,21 +1801,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1825,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748268.9683343841</v>
+        <v>748264</v>
       </c>
       <c r="R12" t="n">
-        <v>7240615.34029606</v>
+        <v>7240666</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1963,21 +1858,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1986,6 +1871,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2006,10 +1906,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178595</v>
+        <v>112178592</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>90712</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2018,25 +1918,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>232140</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2046,10 +1946,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748365.5830737479</v>
+        <v>748310</v>
       </c>
       <c r="R13" t="n">
-        <v>7240561.479343918</v>
+        <v>7240610</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2079,19 +1979,14 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2122,10 +2017,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178584</v>
+        <v>112178570</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>90300</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2134,25 +2029,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>4745</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2162,10 +2057,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748269.3157457039</v>
+        <v>748188</v>
       </c>
       <c r="R14" t="n">
-        <v>7240656.287733501</v>
+        <v>7240735</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2195,19 +2090,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2238,10 +2123,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178552</v>
+        <v>112178566</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2254,21 +2139,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2278,10 +2163,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>748326.3421591006</v>
+        <v>748179</v>
       </c>
       <c r="R15" t="n">
-        <v>7240591.072769734</v>
+        <v>7240685</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,19 +2196,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2354,10 +2229,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178559</v>
+        <v>112178552</v>
       </c>
       <c r="B16" t="n">
-        <v>88489</v>
+        <v>90658</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2370,21 +2245,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2394,10 +2269,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748250.9269114911</v>
+        <v>748326</v>
       </c>
       <c r="R16" t="n">
-        <v>7240623.942822521</v>
+        <v>7240591</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2427,21 +2302,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2450,21 +2315,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2485,10 +2335,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178569</v>
+        <v>112178560</v>
       </c>
       <c r="B17" t="n">
-        <v>90666</v>
+        <v>90670</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2497,25 +2347,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2525,10 +2375,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748176.4270214032</v>
+        <v>748251</v>
       </c>
       <c r="R17" t="n">
-        <v>7240731.132622059</v>
+        <v>7240623</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2558,19 +2408,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2601,10 +2441,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178576</v>
+        <v>112178596</v>
       </c>
       <c r="B18" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2613,25 +2453,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2641,10 +2481,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748240.5425830974</v>
+        <v>748366</v>
       </c>
       <c r="R18" t="n">
-        <v>7240707.011551805</v>
+        <v>7240547</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2674,19 +2514,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2717,10 +2547,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178564</v>
+        <v>112178589</v>
       </c>
       <c r="B19" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2729,25 +2559,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2757,10 +2587,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748188.3985188152</v>
+        <v>748304</v>
       </c>
       <c r="R19" t="n">
-        <v>7240669.290065946</v>
+        <v>7240615</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2790,19 +2620,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2833,10 +2653,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178579</v>
+        <v>112178574</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90678</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2845,25 +2665,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2873,10 +2693,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748251.1856954921</v>
+        <v>748216</v>
       </c>
       <c r="R20" t="n">
-        <v>7240685.974139915</v>
+        <v>7240707</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2906,19 +2726,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2949,10 +2759,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178590</v>
+        <v>112178568</v>
       </c>
       <c r="B21" t="n">
-        <v>88489</v>
+        <v>90666</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2961,25 +2771,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2989,10 +2799,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748308.887140439</v>
+        <v>748173</v>
       </c>
       <c r="R21" t="n">
-        <v>7240607.739542886</v>
+        <v>7240697</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3022,19 +2832,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3065,10 +2865,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178555</v>
+        <v>112178584</v>
       </c>
       <c r="B22" t="n">
-        <v>78107</v>
+        <v>90678</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3077,25 +2877,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3105,10 +2905,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748314.2067523072</v>
+        <v>748269</v>
       </c>
       <c r="R22" t="n">
-        <v>7240599.751442607</v>
+        <v>7240656</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3138,19 +2938,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3181,10 +2971,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178582</v>
+        <v>112178591</v>
       </c>
       <c r="B23" t="n">
-        <v>88489</v>
+        <v>90670</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3193,25 +2983,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3221,10 +3011,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748264.2390635755</v>
+        <v>748309</v>
       </c>
       <c r="R23" t="n">
-        <v>7240666.405371635</v>
+        <v>7240608</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3254,21 +3044,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3277,21 +3057,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3312,10 +3077,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178568</v>
+        <v>112178576</v>
       </c>
       <c r="B24" t="n">
-        <v>90666</v>
+        <v>90678</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3328,21 +3093,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3352,10 +3117,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748172.9620312381</v>
+        <v>748241</v>
       </c>
       <c r="R24" t="n">
-        <v>7240697.094641659</v>
+        <v>7240707</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3385,19 +3150,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3428,10 +3183,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178551</v>
+        <v>112178585</v>
       </c>
       <c r="B25" t="n">
-        <v>88032</v>
+        <v>90666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3440,25 +3195,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3468,10 +3223,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748332.0812077799</v>
+        <v>748288</v>
       </c>
       <c r="R25" t="n">
-        <v>7240583.12002639</v>
+        <v>7240649</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3501,19 +3256,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3544,10 +3289,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178581</v>
+        <v>112178562</v>
       </c>
       <c r="B26" t="n">
-        <v>90658</v>
+        <v>89672</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3556,25 +3301,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>71</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3584,10 +3329,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748260.2130672592</v>
+        <v>748243</v>
       </c>
       <c r="R26" t="n">
-        <v>7240674.080609731</v>
+        <v>7240626</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3617,19 +3362,14 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3640,6 +3380,21 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3660,10 +3415,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178566</v>
+        <v>112178590</v>
       </c>
       <c r="B27" t="n">
-        <v>90682</v>
+        <v>88489</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3676,21 +3431,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3700,10 +3455,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>748179.0182960301</v>
+        <v>748309</v>
       </c>
       <c r="R27" t="n">
-        <v>7240685.372304448</v>
+        <v>7240608</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3733,19 +3488,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3776,10 +3521,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178554</v>
+        <v>112178564</v>
       </c>
       <c r="B28" t="n">
-        <v>88032</v>
+        <v>90678</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3788,25 +3533,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6276</v>
+        <v>4366</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3816,10 +3561,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748323.3006321697</v>
+        <v>748188</v>
       </c>
       <c r="R28" t="n">
-        <v>7240592.081718579</v>
+        <v>7240669</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3849,19 +3594,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3892,10 +3627,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178570</v>
+        <v>112178583</v>
       </c>
       <c r="B29" t="n">
-        <v>90300</v>
+        <v>90652</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3908,21 +3643,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4745</v>
+        <v>3100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3932,10 +3667,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748188.3406613012</v>
+        <v>748268</v>
       </c>
       <c r="R29" t="n">
-        <v>7240735.089884196</v>
+        <v>7240657</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3965,19 +3700,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4008,10 +3733,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178596</v>
+        <v>112178563</v>
       </c>
       <c r="B30" t="n">
-        <v>90658</v>
+        <v>90682</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4024,21 +3749,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4048,10 +3773,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748365.5619142037</v>
+        <v>748227</v>
       </c>
       <c r="R30" t="n">
-        <v>7240546.712791221</v>
+        <v>7240629</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4081,19 +3806,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4124,10 +3839,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178591</v>
+        <v>112178551</v>
       </c>
       <c r="B31" t="n">
-        <v>90670</v>
+        <v>88032</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4140,21 +3855,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4365</v>
+        <v>6276</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4164,10 +3879,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748308.887140439</v>
+        <v>748332</v>
       </c>
       <c r="R31" t="n">
-        <v>7240607.739542886</v>
+        <v>7240583</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4197,19 +3912,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4240,10 +3945,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178567</v>
+        <v>112178593</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>88032</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4252,25 +3957,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>6276</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4280,10 +3985,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748176.9215640699</v>
+        <v>748334</v>
       </c>
       <c r="R32" t="n">
-        <v>7240685.195521547</v>
+        <v>7240606</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4313,19 +4018,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4356,10 +4051,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178592</v>
+        <v>112178594</v>
       </c>
       <c r="B33" t="n">
-        <v>90712</v>
+        <v>90658</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4368,25 +4063,25 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>232140</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4396,10 +4091,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748309.9685472599</v>
+        <v>748342</v>
       </c>
       <c r="R33" t="n">
-        <v>7240609.93997206</v>
+        <v>7240602</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4429,24 +4124,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4477,10 +4157,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178574</v>
+        <v>112178579</v>
       </c>
       <c r="B34" t="n">
-        <v>90678</v>
+        <v>90709</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4489,25 +4169,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4517,10 +4197,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748215.5893916707</v>
+        <v>748251</v>
       </c>
       <c r="R34" t="n">
-        <v>7240707.438168486</v>
+        <v>7240686</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4550,19 +4230,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4593,10 +4263,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178580</v>
+        <v>112178581</v>
       </c>
       <c r="B35" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4609,21 +4279,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4633,10 +4303,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748254.9643746315</v>
+        <v>748260</v>
       </c>
       <c r="R35" t="n">
-        <v>7240681.230878154</v>
+        <v>7240674</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4666,19 +4336,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4709,10 +4369,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178578</v>
+        <v>112178588</v>
       </c>
       <c r="B36" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4721,25 +4381,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4749,10 +4409,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748253.8692816154</v>
+        <v>748304</v>
       </c>
       <c r="R36" t="n">
-        <v>7240694.21521014</v>
+        <v>7240615</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4782,19 +4442,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4825,10 +4475,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178556</v>
+        <v>112178571</v>
       </c>
       <c r="B37" t="n">
-        <v>77268</v>
+        <v>90652</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4841,21 +4491,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>228912</v>
+        <v>3100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4865,10 +4515,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748311.2359062488</v>
+        <v>748199</v>
       </c>
       <c r="R37" t="n">
-        <v>7240599.92267567</v>
+        <v>7240733</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4898,19 +4548,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4941,10 +4581,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178594</v>
+        <v>112178572</v>
       </c>
       <c r="B38" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4957,21 +4597,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4981,10 +4621,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748341.8844330829</v>
+        <v>748200</v>
       </c>
       <c r="R38" t="n">
-        <v>7240602.086374523</v>
+        <v>7240734</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5014,21 +4654,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
@@ -5037,6 +4667,21 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5057,10 +4702,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178587</v>
+        <v>112178595</v>
       </c>
       <c r="B39" t="n">
-        <v>78081</v>
+        <v>90660</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5073,21 +4718,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>229821</v>
+        <v>4362</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5097,10 +4742,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748309.0545249605</v>
+        <v>748366</v>
       </c>
       <c r="R39" t="n">
-        <v>7240615.768639596</v>
+        <v>7240561</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5130,21 +4775,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD39" t="b">
         <v>0</v>
       </c>
@@ -5153,21 +4788,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5188,10 +4808,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178550</v>
+        <v>112178555</v>
       </c>
       <c r="B40" t="n">
-        <v>90666</v>
+        <v>78107</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5200,25 +4820,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5228,10 +4848,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748334.5407367183</v>
+        <v>748314</v>
       </c>
       <c r="R40" t="n">
-        <v>7240568.984735451</v>
+        <v>7240600</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5261,19 +4881,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5304,10 +4914,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178553</v>
+        <v>112178556</v>
       </c>
       <c r="B41" t="n">
-        <v>90678</v>
+        <v>77268</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5316,25 +4926,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5344,10 +4954,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748324.2453580573</v>
+        <v>748311</v>
       </c>
       <c r="R41" t="n">
-        <v>7240590.89588304</v>
+        <v>7240600</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5377,19 +4987,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5420,10 +5020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178588</v>
+        <v>112178577</v>
       </c>
       <c r="B42" t="n">
-        <v>90658</v>
+        <v>90300</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5436,21 +5036,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5460,10 +5060,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>748304.0575775182</v>
+        <v>748254</v>
       </c>
       <c r="R42" t="n">
-        <v>7240614.925283005</v>
+        <v>7240695</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5493,19 +5093,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5536,10 +5126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178589</v>
+        <v>112178553</v>
       </c>
       <c r="B43" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5548,25 +5138,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5576,10 +5166,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748304.0575775182</v>
+        <v>748324</v>
       </c>
       <c r="R43" t="n">
-        <v>7240614.925283005</v>
+        <v>7240591</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5609,19 +5199,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5652,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178560</v>
+        <v>112178569</v>
       </c>
       <c r="B44" t="n">
-        <v>90670</v>
+        <v>90666</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5664,25 +5244,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5692,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748250.5782058965</v>
+        <v>748176</v>
       </c>
       <c r="R44" t="n">
-        <v>7240623.069738661</v>
+        <v>7240731</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5725,19 +5305,9 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5768,7 +5338,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112182055</v>
+        <v>112181991</v>
       </c>
       <c r="B45" t="n">
         <v>90678</v>
@@ -5803,7 +5373,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5812,10 +5382,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>748349.5412028243</v>
+        <v>748209</v>
       </c>
       <c r="R45" t="n">
-        <v>7240561.391435981</v>
+        <v>7240817</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5845,19 +5415,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -5889,7 +5449,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112181991</v>
+        <v>112182055</v>
       </c>
       <c r="B46" t="n">
         <v>90678</v>
@@ -5924,7 +5484,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5933,10 +5493,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>748208.5029369708</v>
+        <v>748350</v>
       </c>
       <c r="R46" t="n">
-        <v>7240816.513055791</v>
+        <v>7240561</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5966,19 +5526,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC46" t="inlineStr">
@@ -6010,10 +5560,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112181969</v>
+        <v>112182217</v>
       </c>
       <c r="B47" t="n">
-        <v>90682</v>
+        <v>90666</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6022,30 +5572,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -6054,10 +5604,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>748312.6074345136</v>
+        <v>748236</v>
       </c>
       <c r="R47" t="n">
-        <v>7240628.723534348</v>
+        <v>7240697</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6087,19 +5637,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
@@ -6131,10 +5671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112182293</v>
+        <v>112182095</v>
       </c>
       <c r="B48" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6147,26 +5687,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6175,10 +5715,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>748041.384462429</v>
+        <v>748368</v>
       </c>
       <c r="R48" t="n">
-        <v>7240905.344132535</v>
+        <v>7240553</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6208,19 +5748,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC48" t="inlineStr">
@@ -6252,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112182095</v>
+        <v>112182293</v>
       </c>
       <c r="B49" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6268,26 +5798,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -6296,10 +5826,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>748367.5833346483</v>
+        <v>748041</v>
       </c>
       <c r="R49" t="n">
-        <v>7240552.789260096</v>
+        <v>7240905</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6329,19 +5859,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -6373,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112182217</v>
+        <v>112181969</v>
       </c>
       <c r="B50" t="n">
-        <v>90666</v>
+        <v>90682</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6385,30 +5905,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6417,10 +5937,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>748235.9035450997</v>
+        <v>748313</v>
       </c>
       <c r="R50" t="n">
-        <v>7240696.918314887</v>
+        <v>7240629</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6450,19 +5970,9 @@
           <t>2023-08-25</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
@@ -6538,10 +6048,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>747981.8210642082</v>
+        <v>747982</v>
       </c>
       <c r="R51" t="n">
-        <v>7240925.632436961</v>
+        <v>7240926</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6571,19 +6081,9 @@
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-08-18</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178578</v>
+        <v>112178593</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>88166</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748254</v>
+        <v>748334</v>
       </c>
       <c r="R2" t="n">
-        <v>7240694</v>
+        <v>7240606</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178554</v>
+        <v>112178568</v>
       </c>
       <c r="B3" t="n">
-        <v>88032</v>
+        <v>90800</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +798,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748323</v>
+        <v>748173</v>
       </c>
       <c r="R3" t="n">
-        <v>7240592</v>
+        <v>7240697</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112178559</v>
+        <v>112178558</v>
       </c>
       <c r="B4" t="n">
-        <v>88489</v>
+        <v>90792</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>748251</v>
+        <v>748269</v>
       </c>
       <c r="R4" t="n">
-        <v>7240624</v>
+        <v>7240615</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,21 +978,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1013,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178558</v>
+        <v>112178594</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748269</v>
+        <v>748342</v>
       </c>
       <c r="R5" t="n">
-        <v>7240615</v>
+        <v>7240602</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1119,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112178561</v>
+        <v>112178566</v>
       </c>
       <c r="B6" t="n">
-        <v>90854</v>
+        <v>90816</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1135,21 +1120,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1159,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748250</v>
+        <v>748179</v>
       </c>
       <c r="R6" t="n">
-        <v>7240623</v>
+        <v>7240685</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1205,21 +1190,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1240,10 +1210,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178567</v>
+        <v>112178578</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90812</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,25 +1222,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1280,10 +1250,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748177</v>
+        <v>748254</v>
       </c>
       <c r="R7" t="n">
-        <v>7240685</v>
+        <v>7240694</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,10 +1316,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178550</v>
+        <v>112178582</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>88623</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1358,25 +1328,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1386,10 +1356,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748335</v>
+        <v>748264</v>
       </c>
       <c r="R8" t="n">
-        <v>7240569</v>
+        <v>7240666</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1432,6 +1402,21 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1452,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178565</v>
+        <v>112178553</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90812</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1464,25 +1449,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1492,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748187</v>
+        <v>748324</v>
       </c>
       <c r="R9" t="n">
-        <v>7240670</v>
+        <v>7240591</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1558,10 +1543,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178580</v>
+        <v>112178583</v>
       </c>
       <c r="B10" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1574,21 +1559,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1598,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748255</v>
+        <v>748268</v>
       </c>
       <c r="R10" t="n">
-        <v>7240681</v>
+        <v>7240657</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1664,10 +1649,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178587</v>
+        <v>112178562</v>
       </c>
       <c r="B11" t="n">
-        <v>78081</v>
+        <v>89806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1676,25 +1661,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>71</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1704,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748309</v>
+        <v>748243</v>
       </c>
       <c r="R11" t="n">
-        <v>7240616</v>
+        <v>7240626</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1740,6 +1725,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1785,10 +1775,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178582</v>
+        <v>112178589</v>
       </c>
       <c r="B12" t="n">
-        <v>88489</v>
+        <v>90816</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1801,21 +1791,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1825,10 +1815,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748264</v>
+        <v>748304</v>
       </c>
       <c r="R12" t="n">
-        <v>7240666</v>
+        <v>7240615</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1871,21 +1861,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1906,10 +1881,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178592</v>
+        <v>112178565</v>
       </c>
       <c r="B13" t="n">
-        <v>90712</v>
+        <v>90816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1918,25 +1893,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>232140</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1946,10 +1921,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748310</v>
+        <v>748187</v>
       </c>
       <c r="R13" t="n">
-        <v>7240610</v>
+        <v>7240670</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1982,11 +1957,6 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2017,10 +1987,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178570</v>
+        <v>112178585</v>
       </c>
       <c r="B14" t="n">
-        <v>90300</v>
+        <v>90800</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2029,25 +1999,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2057,10 +2027,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748188</v>
+        <v>748288</v>
       </c>
       <c r="R14" t="n">
-        <v>7240735</v>
+        <v>7240649</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2123,10 +2093,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178566</v>
+        <v>112178572</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>78228</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2139,21 +2109,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2163,10 +2133,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>748179</v>
+        <v>748200</v>
       </c>
       <c r="R15" t="n">
-        <v>7240685</v>
+        <v>7240734</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2209,6 +2179,21 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2229,10 +2214,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178552</v>
+        <v>112178570</v>
       </c>
       <c r="B16" t="n">
-        <v>90658</v>
+        <v>90434</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2245,21 +2230,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>4745</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2269,10 +2254,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748326</v>
+        <v>748188</v>
       </c>
       <c r="R16" t="n">
-        <v>7240591</v>
+        <v>7240735</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2335,10 +2320,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178560</v>
+        <v>112178563</v>
       </c>
       <c r="B17" t="n">
-        <v>90670</v>
+        <v>90816</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2347,25 +2332,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2375,10 +2360,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748251</v>
+        <v>748227</v>
       </c>
       <c r="R17" t="n">
-        <v>7240623</v>
+        <v>7240629</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2441,10 +2426,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178596</v>
+        <v>112178560</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90804</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2453,25 +2438,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>4365</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2481,10 +2466,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748366</v>
+        <v>748251</v>
       </c>
       <c r="R18" t="n">
-        <v>7240547</v>
+        <v>7240623</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2547,10 +2532,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178589</v>
+        <v>112178595</v>
       </c>
       <c r="B19" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2563,21 +2548,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2587,10 +2572,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748304</v>
+        <v>748366</v>
       </c>
       <c r="R19" t="n">
-        <v>7240615</v>
+        <v>7240561</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2653,10 +2638,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178574</v>
+        <v>112178584</v>
       </c>
       <c r="B20" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2693,10 +2678,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748216</v>
+        <v>748269</v>
       </c>
       <c r="R20" t="n">
-        <v>7240707</v>
+        <v>7240656</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2759,10 +2744,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178568</v>
+        <v>112178574</v>
       </c>
       <c r="B21" t="n">
-        <v>90666</v>
+        <v>90812</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2775,21 +2760,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2799,10 +2784,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748173</v>
+        <v>748216</v>
       </c>
       <c r="R21" t="n">
-        <v>7240697</v>
+        <v>7240707</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2865,10 +2850,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178584</v>
+        <v>112178551</v>
       </c>
       <c r="B22" t="n">
-        <v>90678</v>
+        <v>88166</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2877,25 +2862,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2905,10 +2890,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748269</v>
+        <v>748332</v>
       </c>
       <c r="R22" t="n">
-        <v>7240656</v>
+        <v>7240583</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2971,10 +2956,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178591</v>
+        <v>112178550</v>
       </c>
       <c r="B23" t="n">
-        <v>90670</v>
+        <v>90800</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2983,25 +2968,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3011,10 +2996,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748309</v>
+        <v>748335</v>
       </c>
       <c r="R23" t="n">
-        <v>7240608</v>
+        <v>7240569</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3077,10 +3062,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178576</v>
+        <v>112178579</v>
       </c>
       <c r="B24" t="n">
-        <v>90678</v>
+        <v>90843</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3089,25 +3074,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3117,10 +3102,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748241</v>
+        <v>748251</v>
       </c>
       <c r="R24" t="n">
-        <v>7240707</v>
+        <v>7240686</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3183,10 +3168,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178585</v>
+        <v>112178592</v>
       </c>
       <c r="B25" t="n">
-        <v>90666</v>
+        <v>90846</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3195,25 +3180,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>232140</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3223,10 +3208,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748288</v>
+        <v>748310</v>
       </c>
       <c r="R25" t="n">
-        <v>7240649</v>
+        <v>7240610</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3259,6 +3244,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3289,10 +3279,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178562</v>
+        <v>112178571</v>
       </c>
       <c r="B26" t="n">
-        <v>89672</v>
+        <v>90786</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3301,25 +3291,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>71</v>
+        <v>3100</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3329,10 +3319,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748243</v>
+        <v>748199</v>
       </c>
       <c r="R26" t="n">
-        <v>7240626</v>
+        <v>7240733</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3367,11 +3357,6 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
@@ -3380,21 +3365,6 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3415,10 +3385,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178590</v>
+        <v>112178561</v>
       </c>
       <c r="B27" t="n">
-        <v>88489</v>
+        <v>90988</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3431,21 +3401,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3455,10 +3425,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>748309</v>
+        <v>748250</v>
       </c>
       <c r="R27" t="n">
-        <v>7240608</v>
+        <v>7240623</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3501,6 +3471,21 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3521,10 +3506,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178564</v>
+        <v>112178552</v>
       </c>
       <c r="B28" t="n">
-        <v>90678</v>
+        <v>90792</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3533,25 +3518,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3561,10 +3546,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748188</v>
+        <v>748326</v>
       </c>
       <c r="R28" t="n">
-        <v>7240669</v>
+        <v>7240591</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3627,10 +3612,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178583</v>
+        <v>112178555</v>
       </c>
       <c r="B29" t="n">
-        <v>90652</v>
+        <v>78228</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3643,21 +3628,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3667,10 +3652,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748268</v>
+        <v>748314</v>
       </c>
       <c r="R29" t="n">
-        <v>7240657</v>
+        <v>7240600</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3733,10 +3718,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178563</v>
+        <v>112178581</v>
       </c>
       <c r="B30" t="n">
-        <v>90682</v>
+        <v>90792</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3749,21 +3734,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3773,10 +3758,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748227</v>
+        <v>748260</v>
       </c>
       <c r="R30" t="n">
-        <v>7240629</v>
+        <v>7240674</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3839,10 +3824,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178551</v>
+        <v>112178554</v>
       </c>
       <c r="B31" t="n">
-        <v>88032</v>
+        <v>88166</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3879,10 +3864,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748332</v>
+        <v>748323</v>
       </c>
       <c r="R31" t="n">
-        <v>7240583</v>
+        <v>7240592</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3945,10 +3930,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178593</v>
+        <v>112178569</v>
       </c>
       <c r="B32" t="n">
-        <v>88032</v>
+        <v>90800</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3957,25 +3942,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3985,10 +3970,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748334</v>
+        <v>748176</v>
       </c>
       <c r="R32" t="n">
-        <v>7240606</v>
+        <v>7240731</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4051,10 +4036,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178594</v>
+        <v>112178588</v>
       </c>
       <c r="B33" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4091,10 +4076,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748342</v>
+        <v>748304</v>
       </c>
       <c r="R33" t="n">
-        <v>7240602</v>
+        <v>7240615</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4157,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178579</v>
+        <v>112178567</v>
       </c>
       <c r="B34" t="n">
-        <v>90709</v>
+        <v>90794</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4173,21 +4158,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4197,10 +4182,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748251</v>
+        <v>748177</v>
       </c>
       <c r="R34" t="n">
-        <v>7240686</v>
+        <v>7240685</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4263,10 +4248,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178581</v>
+        <v>112178564</v>
       </c>
       <c r="B35" t="n">
-        <v>90658</v>
+        <v>90812</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4275,25 +4260,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4303,10 +4288,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748260</v>
+        <v>748188</v>
       </c>
       <c r="R35" t="n">
-        <v>7240674</v>
+        <v>7240669</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4369,10 +4354,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178588</v>
+        <v>112178590</v>
       </c>
       <c r="B36" t="n">
-        <v>90658</v>
+        <v>88623</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4385,21 +4370,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4409,10 +4394,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748304</v>
+        <v>748309</v>
       </c>
       <c r="R36" t="n">
-        <v>7240615</v>
+        <v>7240608</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4475,10 +4460,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178571</v>
+        <v>112178577</v>
       </c>
       <c r="B37" t="n">
-        <v>90652</v>
+        <v>90434</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4491,21 +4476,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3100</v>
+        <v>4745</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4515,10 +4500,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748199</v>
+        <v>748254</v>
       </c>
       <c r="R37" t="n">
-        <v>7240733</v>
+        <v>7240695</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4581,10 +4566,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178572</v>
+        <v>112178580</v>
       </c>
       <c r="B38" t="n">
-        <v>78107</v>
+        <v>90794</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4597,21 +4582,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4621,10 +4606,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748200</v>
+        <v>748255</v>
       </c>
       <c r="R38" t="n">
-        <v>7240734</v>
+        <v>7240681</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4667,21 +4652,6 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4702,10 +4672,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178595</v>
+        <v>112178559</v>
       </c>
       <c r="B39" t="n">
-        <v>90660</v>
+        <v>88623</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4718,21 +4688,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4742,10 +4712,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748366</v>
+        <v>748251</v>
       </c>
       <c r="R39" t="n">
-        <v>7240561</v>
+        <v>7240624</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4788,6 +4758,21 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -4808,10 +4793,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178555</v>
+        <v>112178556</v>
       </c>
       <c r="B40" t="n">
-        <v>78107</v>
+        <v>77389</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4824,21 +4809,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4848,7 +4833,7 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748314</v>
+        <v>748311</v>
       </c>
       <c r="R40" t="n">
         <v>7240600</v>
@@ -4914,10 +4899,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178556</v>
+        <v>112178587</v>
       </c>
       <c r="B41" t="n">
-        <v>77268</v>
+        <v>78202</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4930,21 +4915,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>228912</v>
+        <v>229821</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4954,10 +4939,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748311</v>
+        <v>748309</v>
       </c>
       <c r="R41" t="n">
-        <v>7240600</v>
+        <v>7240616</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5000,6 +4985,21 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5020,10 +5020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178577</v>
+        <v>112178591</v>
       </c>
       <c r="B42" t="n">
-        <v>90300</v>
+        <v>90804</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5032,25 +5032,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4745</v>
+        <v>4365</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>748254</v>
+        <v>748309</v>
       </c>
       <c r="R42" t="n">
-        <v>7240695</v>
+        <v>7240608</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178553</v>
+        <v>112178596</v>
       </c>
       <c r="B43" t="n">
-        <v>90678</v>
+        <v>90792</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5138,25 +5138,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748324</v>
+        <v>748366</v>
       </c>
       <c r="R43" t="n">
-        <v>7240591</v>
+        <v>7240547</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178569</v>
+        <v>112178576</v>
       </c>
       <c r="B44" t="n">
-        <v>90666</v>
+        <v>90812</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5248,21 +5248,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748176</v>
+        <v>748241</v>
       </c>
       <c r="R44" t="n">
-        <v>7240731</v>
+        <v>7240707</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112181991</v>
+        <v>112182102</v>
       </c>
       <c r="B45" t="n">
-        <v>90678</v>
+        <v>90823</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5350,30 +5350,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4366</v>
+        <v>5966</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>748209</v>
+        <v>747982</v>
       </c>
       <c r="R45" t="n">
-        <v>7240817</v>
+        <v>7240926</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5412,12 +5412,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -5452,7 +5452,7 @@
         <v>112182055</v>
       </c>
       <c r="B46" t="n">
-        <v>90678</v>
+        <v>90812</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5560,10 +5560,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112182217</v>
+        <v>112182095</v>
       </c>
       <c r="B47" t="n">
-        <v>90666</v>
+        <v>90792</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5572,25 +5572,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>748236</v>
+        <v>748368</v>
       </c>
       <c r="R47" t="n">
-        <v>7240697</v>
+        <v>7240553</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112182095</v>
+        <v>112182217</v>
       </c>
       <c r="B48" t="n">
-        <v>90658</v>
+        <v>90800</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5683,25 +5683,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>748368</v>
+        <v>748236</v>
       </c>
       <c r="R48" t="n">
-        <v>7240553</v>
+        <v>7240697</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112182293</v>
+        <v>112181969</v>
       </c>
       <c r="B49" t="n">
-        <v>90660</v>
+        <v>90816</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5798,26 +5798,26 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>748041</v>
+        <v>748313</v>
       </c>
       <c r="R49" t="n">
-        <v>7240905</v>
+        <v>7240629</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112181969</v>
+        <v>112181991</v>
       </c>
       <c r="B50" t="n">
-        <v>90682</v>
+        <v>90812</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5905,30 +5905,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5937,10 +5937,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>748313</v>
+        <v>748209</v>
       </c>
       <c r="R50" t="n">
-        <v>7240629</v>
+        <v>7240817</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112182102</v>
+        <v>112182293</v>
       </c>
       <c r="B51" t="n">
-        <v>90689</v>
+        <v>90794</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6020,26 +6020,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>747982</v>
+        <v>748041</v>
       </c>
       <c r="R51" t="n">
-        <v>7240926</v>
+        <v>7240905</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6078,12 +6078,12 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AC51" t="inlineStr">

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -4142,10 +4142,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178567</v>
+        <v>112178590</v>
       </c>
       <c r="B34" t="n">
-        <v>90794</v>
+        <v>88623</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4158,21 +4158,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748177</v>
+        <v>748309</v>
       </c>
       <c r="R34" t="n">
-        <v>7240685</v>
+        <v>7240608</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4248,10 +4248,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178564</v>
+        <v>112178567</v>
       </c>
       <c r="B35" t="n">
-        <v>90812</v>
+        <v>90794</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4260,25 +4260,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4288,10 +4288,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748188</v>
+        <v>748177</v>
       </c>
       <c r="R35" t="n">
-        <v>7240669</v>
+        <v>7240685</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178590</v>
+        <v>112178564</v>
       </c>
       <c r="B36" t="n">
-        <v>88623</v>
+        <v>90812</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4366,25 +4366,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4394,10 +4394,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748309</v>
+        <v>748188</v>
       </c>
       <c r="R36" t="n">
-        <v>7240608</v>
+        <v>7240669</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178593</v>
+        <v>112178562</v>
       </c>
       <c r="B2" t="n">
-        <v>88166</v>
+        <v>89820</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6276</v>
+        <v>71</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748334</v>
+        <v>748243</v>
       </c>
       <c r="R2" t="n">
-        <v>7240606</v>
+        <v>7240626</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,6 +758,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -766,6 +771,21 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -786,10 +806,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178568</v>
+        <v>112178565</v>
       </c>
       <c r="B3" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,25 +818,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748173</v>
+        <v>748187</v>
       </c>
       <c r="R3" t="n">
-        <v>7240697</v>
+        <v>7240670</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112178558</v>
+        <v>112178569</v>
       </c>
       <c r="B4" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -904,25 +924,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>748269</v>
+        <v>748176</v>
       </c>
       <c r="R4" t="n">
-        <v>7240615</v>
+        <v>7240731</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +1018,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178594</v>
+        <v>112178589</v>
       </c>
       <c r="B5" t="n">
-        <v>90792</v>
+        <v>90830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1014,21 +1034,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1058,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748342</v>
+        <v>748304</v>
       </c>
       <c r="R5" t="n">
-        <v>7240602</v>
+        <v>7240615</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112178566</v>
+        <v>112178574</v>
       </c>
       <c r="B6" t="n">
-        <v>90816</v>
+        <v>90826</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,25 +1136,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1164,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748179</v>
+        <v>748216</v>
       </c>
       <c r="R6" t="n">
-        <v>7240685</v>
+        <v>7240707</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,10 +1230,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178578</v>
+        <v>112178567</v>
       </c>
       <c r="B7" t="n">
-        <v>90812</v>
+        <v>90808</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1222,25 +1242,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1250,10 +1270,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748254</v>
+        <v>748177</v>
       </c>
       <c r="R7" t="n">
-        <v>7240694</v>
+        <v>7240685</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1316,10 +1336,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178582</v>
+        <v>112178556</v>
       </c>
       <c r="B8" t="n">
-        <v>88623</v>
+        <v>77403</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1332,21 +1352,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1356,10 +1376,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748264</v>
+        <v>748311</v>
       </c>
       <c r="R8" t="n">
-        <v>7240666</v>
+        <v>7240600</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1402,21 +1422,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1437,10 +1442,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178553</v>
+        <v>112178594</v>
       </c>
       <c r="B9" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1449,25 +1454,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1477,10 +1482,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748324</v>
+        <v>748342</v>
       </c>
       <c r="R9" t="n">
-        <v>7240591</v>
+        <v>7240602</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1543,10 +1548,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178583</v>
+        <v>112178591</v>
       </c>
       <c r="B10" t="n">
-        <v>90786</v>
+        <v>90818</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1555,25 +1560,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3100</v>
+        <v>4365</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1583,10 +1588,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748268</v>
+        <v>748309</v>
       </c>
       <c r="R10" t="n">
-        <v>7240657</v>
+        <v>7240608</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1649,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178562</v>
+        <v>112178560</v>
       </c>
       <c r="B11" t="n">
-        <v>89806</v>
+        <v>90818</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1661,25 +1666,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>4365</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1689,10 +1694,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748243</v>
+        <v>748251</v>
       </c>
       <c r="R11" t="n">
-        <v>7240626</v>
+        <v>7240623</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1727,11 +1732,6 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
@@ -1740,21 +1740,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1775,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178589</v>
+        <v>112178566</v>
       </c>
       <c r="B12" t="n">
-        <v>90816</v>
+        <v>90830</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1815,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748304</v>
+        <v>748179</v>
       </c>
       <c r="R12" t="n">
-        <v>7240615</v>
+        <v>7240685</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1881,10 +1866,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178565</v>
+        <v>112178554</v>
       </c>
       <c r="B13" t="n">
-        <v>90816</v>
+        <v>88180</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1893,25 +1878,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1921,10 +1906,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748187</v>
+        <v>748323</v>
       </c>
       <c r="R13" t="n">
-        <v>7240670</v>
+        <v>7240592</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1987,10 +1972,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178585</v>
+        <v>112178563</v>
       </c>
       <c r="B14" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1999,25 +1984,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2027,10 +2012,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748288</v>
+        <v>748227</v>
       </c>
       <c r="R14" t="n">
-        <v>7240649</v>
+        <v>7240629</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2093,10 +2078,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178572</v>
+        <v>112178550</v>
       </c>
       <c r="B15" t="n">
-        <v>78228</v>
+        <v>90814</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2105,25 +2090,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2133,10 +2118,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>748200</v>
+        <v>748335</v>
       </c>
       <c r="R15" t="n">
-        <v>7240734</v>
+        <v>7240569</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2179,21 +2164,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2214,10 +2184,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178570</v>
+        <v>112178596</v>
       </c>
       <c r="B16" t="n">
-        <v>90434</v>
+        <v>90806</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2230,21 +2200,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4745</v>
+        <v>4361</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2254,10 +2224,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748188</v>
+        <v>748366</v>
       </c>
       <c r="R16" t="n">
-        <v>7240735</v>
+        <v>7240547</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2320,10 +2290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178563</v>
+        <v>112178580</v>
       </c>
       <c r="B17" t="n">
-        <v>90816</v>
+        <v>90808</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2336,21 +2306,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2360,10 +2330,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748227</v>
+        <v>748255</v>
       </c>
       <c r="R17" t="n">
-        <v>7240629</v>
+        <v>7240681</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2426,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178560</v>
+        <v>112178558</v>
       </c>
       <c r="B18" t="n">
-        <v>90804</v>
+        <v>90806</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2438,25 +2408,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2466,10 +2436,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748251</v>
+        <v>748269</v>
       </c>
       <c r="R18" t="n">
-        <v>7240623</v>
+        <v>7240615</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2532,10 +2502,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178595</v>
+        <v>112178552</v>
       </c>
       <c r="B19" t="n">
-        <v>90794</v>
+        <v>90806</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2548,21 +2518,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2572,10 +2542,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748366</v>
+        <v>748326</v>
       </c>
       <c r="R19" t="n">
-        <v>7240561</v>
+        <v>7240591</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2638,10 +2608,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178584</v>
+        <v>112178588</v>
       </c>
       <c r="B20" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2650,25 +2620,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2678,10 +2648,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748269</v>
+        <v>748304</v>
       </c>
       <c r="R20" t="n">
-        <v>7240656</v>
+        <v>7240615</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2744,10 +2714,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178574</v>
+        <v>112178579</v>
       </c>
       <c r="B21" t="n">
-        <v>90812</v>
+        <v>90857</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2756,25 +2726,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>5448</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2784,10 +2754,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748216</v>
+        <v>748251</v>
       </c>
       <c r="R21" t="n">
-        <v>7240707</v>
+        <v>7240686</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2850,10 +2820,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178551</v>
+        <v>112178587</v>
       </c>
       <c r="B22" t="n">
-        <v>88166</v>
+        <v>78216</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2862,25 +2832,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6276</v>
+        <v>229821</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2890,10 +2860,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748332</v>
+        <v>748309</v>
       </c>
       <c r="R22" t="n">
-        <v>7240583</v>
+        <v>7240616</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2936,6 +2906,21 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2956,10 +2941,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178550</v>
+        <v>112178582</v>
       </c>
       <c r="B23" t="n">
-        <v>90800</v>
+        <v>88637</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2968,25 +2953,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2996,10 +2981,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748335</v>
+        <v>748264</v>
       </c>
       <c r="R23" t="n">
-        <v>7240569</v>
+        <v>7240666</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3042,6 +3027,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3062,10 +3062,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178579</v>
+        <v>112178561</v>
       </c>
       <c r="B24" t="n">
-        <v>90843</v>
+        <v>91002</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3078,21 +3078,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5448</v>
+        <v>2079</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3102,10 +3102,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748251</v>
+        <v>748250</v>
       </c>
       <c r="R24" t="n">
-        <v>7240686</v>
+        <v>7240623</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,6 +3148,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3168,10 +3183,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178592</v>
+        <v>112178578</v>
       </c>
       <c r="B25" t="n">
-        <v>90846</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3180,25 +3195,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>232140</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3208,10 +3223,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748310</v>
+        <v>748254</v>
       </c>
       <c r="R25" t="n">
-        <v>7240610</v>
+        <v>7240694</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3244,11 +3259,6 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3279,10 +3289,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178571</v>
+        <v>112178593</v>
       </c>
       <c r="B26" t="n">
-        <v>90786</v>
+        <v>88180</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3291,25 +3301,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3100</v>
+        <v>6276</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3319,10 +3329,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748199</v>
+        <v>748334</v>
       </c>
       <c r="R26" t="n">
-        <v>7240733</v>
+        <v>7240606</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3385,10 +3395,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178561</v>
+        <v>112178570</v>
       </c>
       <c r="B27" t="n">
-        <v>90988</v>
+        <v>90448</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3401,21 +3411,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2079</v>
+        <v>4745</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3425,10 +3435,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>748250</v>
+        <v>748188</v>
       </c>
       <c r="R27" t="n">
-        <v>7240623</v>
+        <v>7240735</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3471,21 +3481,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3506,10 +3501,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178552</v>
+        <v>112178595</v>
       </c>
       <c r="B28" t="n">
-        <v>90792</v>
+        <v>90808</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3522,21 +3517,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3546,10 +3541,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748326</v>
+        <v>748366</v>
       </c>
       <c r="R28" t="n">
-        <v>7240591</v>
+        <v>7240561</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3612,10 +3607,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178555</v>
+        <v>112178576</v>
       </c>
       <c r="B29" t="n">
-        <v>78228</v>
+        <v>90826</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3624,25 +3619,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3652,10 +3647,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748314</v>
+        <v>748241</v>
       </c>
       <c r="R29" t="n">
-        <v>7240600</v>
+        <v>7240707</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3718,10 +3713,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178581</v>
+        <v>112178585</v>
       </c>
       <c r="B30" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3730,25 +3725,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3758,10 +3753,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748260</v>
+        <v>748288</v>
       </c>
       <c r="R30" t="n">
-        <v>7240674</v>
+        <v>7240649</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3824,10 +3819,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178554</v>
+        <v>112178572</v>
       </c>
       <c r="B31" t="n">
-        <v>88166</v>
+        <v>78242</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3836,25 +3831,25 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6276</v>
+        <v>6453</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3864,10 +3859,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748323</v>
+        <v>748200</v>
       </c>
       <c r="R31" t="n">
-        <v>7240592</v>
+        <v>7240734</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3910,6 +3905,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3930,10 +3940,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178569</v>
+        <v>112178564</v>
       </c>
       <c r="B32" t="n">
-        <v>90800</v>
+        <v>90826</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3946,21 +3956,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3970,10 +3980,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748176</v>
+        <v>748188</v>
       </c>
       <c r="R32" t="n">
-        <v>7240731</v>
+        <v>7240669</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4036,10 +4046,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178588</v>
+        <v>112178571</v>
       </c>
       <c r="B33" t="n">
-        <v>90792</v>
+        <v>90800</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4052,21 +4062,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4076,10 +4086,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748304</v>
+        <v>748199</v>
       </c>
       <c r="R33" t="n">
-        <v>7240615</v>
+        <v>7240733</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4142,10 +4152,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178590</v>
+        <v>112178583</v>
       </c>
       <c r="B34" t="n">
-        <v>88623</v>
+        <v>90800</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4158,21 +4168,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4182,10 +4192,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748309</v>
+        <v>748268</v>
       </c>
       <c r="R34" t="n">
-        <v>7240608</v>
+        <v>7240657</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4248,10 +4258,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178567</v>
+        <v>112178590</v>
       </c>
       <c r="B35" t="n">
-        <v>90794</v>
+        <v>88637</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4264,21 +4274,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4288,10 +4298,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748177</v>
+        <v>748309</v>
       </c>
       <c r="R35" t="n">
-        <v>7240685</v>
+        <v>7240608</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4354,10 +4364,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178564</v>
+        <v>112178559</v>
       </c>
       <c r="B36" t="n">
-        <v>90812</v>
+        <v>88637</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4366,25 +4376,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4394,10 +4404,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748188</v>
+        <v>748251</v>
       </c>
       <c r="R36" t="n">
-        <v>7240669</v>
+        <v>7240624</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4440,6 +4450,21 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4460,10 +4485,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178577</v>
+        <v>112178592</v>
       </c>
       <c r="B37" t="n">
-        <v>90434</v>
+        <v>90860</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4472,25 +4497,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4745</v>
+        <v>232140</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4500,10 +4525,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748254</v>
+        <v>748310</v>
       </c>
       <c r="R37" t="n">
-        <v>7240695</v>
+        <v>7240610</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4536,6 +4561,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4566,10 +4596,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178580</v>
+        <v>112178584</v>
       </c>
       <c r="B38" t="n">
-        <v>90794</v>
+        <v>90826</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4578,25 +4608,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4606,10 +4636,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748255</v>
+        <v>748269</v>
       </c>
       <c r="R38" t="n">
-        <v>7240681</v>
+        <v>7240656</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4672,10 +4702,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178559</v>
+        <v>112178581</v>
       </c>
       <c r="B39" t="n">
-        <v>88623</v>
+        <v>90806</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4688,21 +4718,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4712,10 +4742,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748251</v>
+        <v>748260</v>
       </c>
       <c r="R39" t="n">
-        <v>7240624</v>
+        <v>7240674</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4758,21 +4788,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -4793,10 +4808,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178556</v>
+        <v>112178577</v>
       </c>
       <c r="B40" t="n">
-        <v>77389</v>
+        <v>90448</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4809,21 +4824,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228912</v>
+        <v>4745</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4833,10 +4848,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748311</v>
+        <v>748254</v>
       </c>
       <c r="R40" t="n">
-        <v>7240600</v>
+        <v>7240695</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4899,10 +4914,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178587</v>
+        <v>112178568</v>
       </c>
       <c r="B41" t="n">
-        <v>78202</v>
+        <v>90814</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4911,25 +4926,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229821</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4939,10 +4954,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748309</v>
+        <v>748173</v>
       </c>
       <c r="R41" t="n">
-        <v>7240616</v>
+        <v>7240697</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4985,21 +5000,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
@@ -5020,10 +5020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178591</v>
+        <v>112178555</v>
       </c>
       <c r="B42" t="n">
-        <v>90804</v>
+        <v>78242</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5032,25 +5032,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4365</v>
+        <v>6453</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>748309</v>
+        <v>748314</v>
       </c>
       <c r="R42" t="n">
-        <v>7240608</v>
+        <v>7240600</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178596</v>
+        <v>112178553</v>
       </c>
       <c r="B43" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5138,25 +5138,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748366</v>
+        <v>748324</v>
       </c>
       <c r="R43" t="n">
-        <v>7240547</v>
+        <v>7240591</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178576</v>
+        <v>112178551</v>
       </c>
       <c r="B44" t="n">
-        <v>90812</v>
+        <v>88180</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748241</v>
+        <v>748332</v>
       </c>
       <c r="R44" t="n">
-        <v>7240707</v>
+        <v>7240583</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112182102</v>
+        <v>112182055</v>
       </c>
       <c r="B45" t="n">
-        <v>90823</v>
+        <v>90826</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5350,30 +5350,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5966</v>
+        <v>4366</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>747982</v>
+        <v>748350</v>
       </c>
       <c r="R45" t="n">
-        <v>7240926</v>
+        <v>7240561</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5412,12 +5412,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-08-18</t>
+          <t>2023-08-25</t>
         </is>
       </c>
       <c r="AC45" t="inlineStr">
@@ -5449,10 +5449,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112182055</v>
+        <v>112182095</v>
       </c>
       <c r="B46" t="n">
-        <v>90812</v>
+        <v>90806</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5461,25 +5461,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>748350</v>
+        <v>748368</v>
       </c>
       <c r="R46" t="n">
-        <v>7240561</v>
+        <v>7240553</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5560,10 +5560,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112182095</v>
+        <v>112181991</v>
       </c>
       <c r="B47" t="n">
-        <v>90792</v>
+        <v>90826</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5572,30 +5572,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>748368</v>
+        <v>748209</v>
       </c>
       <c r="R47" t="n">
-        <v>7240553</v>
+        <v>7240817</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112182217</v>
+        <v>112182293</v>
       </c>
       <c r="B48" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5683,30 +5683,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>748236</v>
+        <v>748041</v>
       </c>
       <c r="R48" t="n">
-        <v>7240697</v>
+        <v>7240905</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5782,10 +5782,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>112181969</v>
+        <v>112182102</v>
       </c>
       <c r="B49" t="n">
-        <v>90816</v>
+        <v>90837</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5798,21 +5798,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2059</v>
+        <v>5966</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -5826,10 +5826,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>748313</v>
+        <v>747982</v>
       </c>
       <c r="R49" t="n">
-        <v>7240629</v>
+        <v>7240926</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5856,12 +5856,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-08-25</t>
+          <t>2023-08-18</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
@@ -5893,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112181991</v>
+        <v>112181969</v>
       </c>
       <c r="B50" t="n">
-        <v>90812</v>
+        <v>90830</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5905,30 +5905,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5937,10 +5937,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>748209</v>
+        <v>748313</v>
       </c>
       <c r="R50" t="n">
-        <v>7240817</v>
+        <v>7240629</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112182293</v>
+        <v>112182217</v>
       </c>
       <c r="B51" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6016,30 +6016,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>748041</v>
+        <v>748236</v>
       </c>
       <c r="R51" t="n">
-        <v>7240905</v>
+        <v>7240697</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178562</v>
+        <v>112178580</v>
       </c>
       <c r="B2" t="n">
-        <v>89820</v>
+        <v>90808</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>4362</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748243</v>
+        <v>748255</v>
       </c>
       <c r="R2" t="n">
-        <v>7240626</v>
+        <v>7240681</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,11 +758,6 @@
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -771,21 +766,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -806,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178565</v>
+        <v>112178555</v>
       </c>
       <c r="B3" t="n">
-        <v>90830</v>
+        <v>78242</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -846,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748187</v>
+        <v>748314</v>
       </c>
       <c r="R3" t="n">
-        <v>7240670</v>
+        <v>7240600</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1018,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178589</v>
+        <v>112178591</v>
       </c>
       <c r="B5" t="n">
-        <v>90830</v>
+        <v>90818</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1030,25 +1010,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>4365</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1058,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748304</v>
+        <v>748309</v>
       </c>
       <c r="R5" t="n">
-        <v>7240615</v>
+        <v>7240608</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112178574</v>
+        <v>112178561</v>
       </c>
       <c r="B6" t="n">
-        <v>90826</v>
+        <v>91002</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1136,25 +1116,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>2079</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1164,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748216</v>
+        <v>748250</v>
       </c>
       <c r="R6" t="n">
-        <v>7240707</v>
+        <v>7240623</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1210,6 +1190,21 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1230,7 +1225,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178567</v>
+        <v>112178595</v>
       </c>
       <c r="B7" t="n">
         <v>90808</v>
@@ -1270,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748177</v>
+        <v>748366</v>
       </c>
       <c r="R7" t="n">
-        <v>7240685</v>
+        <v>7240561</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1336,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178556</v>
+        <v>112178592</v>
       </c>
       <c r="B8" t="n">
-        <v>77403</v>
+        <v>90860</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1348,25 +1343,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>232140</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1376,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748311</v>
+        <v>748310</v>
       </c>
       <c r="R8" t="n">
-        <v>7240600</v>
+        <v>7240610</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1412,6 +1407,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1442,10 +1442,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178594</v>
+        <v>112178590</v>
       </c>
       <c r="B9" t="n">
-        <v>90806</v>
+        <v>88637</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1458,21 +1458,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1482,10 +1482,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748342</v>
+        <v>748309</v>
       </c>
       <c r="R9" t="n">
-        <v>7240602</v>
+        <v>7240608</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1548,10 +1548,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178591</v>
+        <v>112178576</v>
       </c>
       <c r="B10" t="n">
-        <v>90818</v>
+        <v>90826</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1560,25 +1560,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4365</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748309</v>
+        <v>748241</v>
       </c>
       <c r="R10" t="n">
-        <v>7240608</v>
+        <v>7240707</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178560</v>
+        <v>112178556</v>
       </c>
       <c r="B11" t="n">
-        <v>90818</v>
+        <v>77403</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1666,25 +1666,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4365</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1694,10 +1694,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748251</v>
+        <v>748311</v>
       </c>
       <c r="R11" t="n">
-        <v>7240623</v>
+        <v>7240600</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178566</v>
+        <v>112178574</v>
       </c>
       <c r="B12" t="n">
-        <v>90830</v>
+        <v>90826</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1772,25 +1772,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1800,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748179</v>
+        <v>748216</v>
       </c>
       <c r="R12" t="n">
-        <v>7240685</v>
+        <v>7240707</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1866,10 +1866,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178554</v>
+        <v>112178594</v>
       </c>
       <c r="B13" t="n">
-        <v>88180</v>
+        <v>90806</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1878,25 +1878,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1906,10 +1906,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748323</v>
+        <v>748342</v>
       </c>
       <c r="R13" t="n">
-        <v>7240592</v>
+        <v>7240602</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178563</v>
+        <v>112178596</v>
       </c>
       <c r="B14" t="n">
-        <v>90830</v>
+        <v>90806</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1988,21 +1988,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748227</v>
+        <v>748366</v>
       </c>
       <c r="R14" t="n">
-        <v>7240629</v>
+        <v>7240547</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2184,10 +2184,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178596</v>
+        <v>112178562</v>
       </c>
       <c r="B16" t="n">
-        <v>90806</v>
+        <v>89820</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2196,25 +2196,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4361</v>
+        <v>71</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,10 +2224,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748366</v>
+        <v>748243</v>
       </c>
       <c r="R16" t="n">
-        <v>7240547</v>
+        <v>7240626</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2262,6 +2262,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2270,6 +2275,21 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2290,10 +2310,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178580</v>
+        <v>112178568</v>
       </c>
       <c r="B17" t="n">
-        <v>90808</v>
+        <v>90814</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2302,25 +2322,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2330,10 +2350,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748255</v>
+        <v>748173</v>
       </c>
       <c r="R17" t="n">
-        <v>7240681</v>
+        <v>7240697</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2396,10 +2416,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178558</v>
+        <v>112178554</v>
       </c>
       <c r="B18" t="n">
-        <v>90806</v>
+        <v>88180</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2408,25 +2428,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2436,10 +2456,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748269</v>
+        <v>748323</v>
       </c>
       <c r="R18" t="n">
-        <v>7240615</v>
+        <v>7240592</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2502,10 +2522,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178552</v>
+        <v>112178579</v>
       </c>
       <c r="B19" t="n">
-        <v>90806</v>
+        <v>90857</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2518,21 +2538,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2542,10 +2562,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748326</v>
+        <v>748251</v>
       </c>
       <c r="R19" t="n">
-        <v>7240591</v>
+        <v>7240686</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2608,10 +2628,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178588</v>
+        <v>112178583</v>
       </c>
       <c r="B20" t="n">
-        <v>90806</v>
+        <v>90800</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2624,21 +2644,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2648,10 +2668,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748304</v>
+        <v>748268</v>
       </c>
       <c r="R20" t="n">
-        <v>7240615</v>
+        <v>7240657</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2714,10 +2734,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178579</v>
+        <v>112178584</v>
       </c>
       <c r="B21" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2726,25 +2746,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2754,10 +2774,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748251</v>
+        <v>748269</v>
       </c>
       <c r="R21" t="n">
-        <v>7240686</v>
+        <v>7240656</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2820,10 +2840,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178587</v>
+        <v>112178565</v>
       </c>
       <c r="B22" t="n">
-        <v>78216</v>
+        <v>90830</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2836,21 +2856,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>229821</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2860,10 +2880,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748309</v>
+        <v>748187</v>
       </c>
       <c r="R22" t="n">
-        <v>7240616</v>
+        <v>7240670</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2906,21 +2926,6 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -2941,10 +2946,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178582</v>
+        <v>112178558</v>
       </c>
       <c r="B23" t="n">
-        <v>88637</v>
+        <v>90806</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2957,21 +2962,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2981,10 +2986,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748264</v>
+        <v>748269</v>
       </c>
       <c r="R23" t="n">
-        <v>7240666</v>
+        <v>7240615</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3027,21 +3032,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3062,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178561</v>
+        <v>112178588</v>
       </c>
       <c r="B24" t="n">
-        <v>91002</v>
+        <v>90806</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3078,21 +3068,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2079</v>
+        <v>4361</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3102,10 +3092,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748250</v>
+        <v>748304</v>
       </c>
       <c r="R24" t="n">
-        <v>7240623</v>
+        <v>7240615</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3148,21 +3138,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3183,10 +3158,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178578</v>
+        <v>112178582</v>
       </c>
       <c r="B25" t="n">
-        <v>90826</v>
+        <v>88637</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3195,25 +3170,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3223,10 +3198,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748254</v>
+        <v>748264</v>
       </c>
       <c r="R25" t="n">
-        <v>7240694</v>
+        <v>7240666</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3269,6 +3244,21 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3289,10 +3279,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178593</v>
+        <v>112178581</v>
       </c>
       <c r="B26" t="n">
-        <v>88180</v>
+        <v>90806</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3301,25 +3291,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6276</v>
+        <v>4361</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3329,10 +3319,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748334</v>
+        <v>748260</v>
       </c>
       <c r="R26" t="n">
-        <v>7240606</v>
+        <v>7240674</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3501,10 +3491,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178595</v>
+        <v>112178587</v>
       </c>
       <c r="B28" t="n">
-        <v>90808</v>
+        <v>78216</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3517,21 +3507,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4362</v>
+        <v>229821</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3541,10 +3531,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748366</v>
+        <v>748309</v>
       </c>
       <c r="R28" t="n">
-        <v>7240561</v>
+        <v>7240616</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3587,6 +3577,21 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3607,7 +3612,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178576</v>
+        <v>112178553</v>
       </c>
       <c r="B29" t="n">
         <v>90826</v>
@@ -3647,10 +3652,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748241</v>
+        <v>748324</v>
       </c>
       <c r="R29" t="n">
-        <v>7240707</v>
+        <v>7240591</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3713,10 +3718,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178585</v>
+        <v>112178577</v>
       </c>
       <c r="B30" t="n">
-        <v>90814</v>
+        <v>90448</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3725,25 +3730,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3753,10 +3758,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748288</v>
+        <v>748254</v>
       </c>
       <c r="R30" t="n">
-        <v>7240649</v>
+        <v>7240695</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3819,10 +3824,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178572</v>
+        <v>112178566</v>
       </c>
       <c r="B31" t="n">
-        <v>78242</v>
+        <v>90830</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3835,21 +3840,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3859,10 +3864,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748200</v>
+        <v>748179</v>
       </c>
       <c r="R31" t="n">
-        <v>7240734</v>
+        <v>7240685</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3905,21 +3910,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3940,10 +3930,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178564</v>
+        <v>112178552</v>
       </c>
       <c r="B32" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3952,25 +3942,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3980,10 +3970,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748188</v>
+        <v>748326</v>
       </c>
       <c r="R32" t="n">
-        <v>7240669</v>
+        <v>7240591</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4046,10 +4036,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178571</v>
+        <v>112178572</v>
       </c>
       <c r="B33" t="n">
-        <v>90800</v>
+        <v>78242</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4062,21 +4052,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3100</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4086,10 +4076,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748199</v>
+        <v>748200</v>
       </c>
       <c r="R33" t="n">
-        <v>7240733</v>
+        <v>7240734</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4132,6 +4122,21 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4152,10 +4157,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178583</v>
+        <v>112178589</v>
       </c>
       <c r="B34" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4168,21 +4173,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4192,10 +4197,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>748268</v>
+        <v>748304</v>
       </c>
       <c r="R34" t="n">
-        <v>7240657</v>
+        <v>7240615</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4258,10 +4263,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178590</v>
+        <v>112178578</v>
       </c>
       <c r="B35" t="n">
-        <v>88637</v>
+        <v>90826</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4270,25 +4275,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4298,10 +4303,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748309</v>
+        <v>748254</v>
       </c>
       <c r="R35" t="n">
-        <v>7240608</v>
+        <v>7240694</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4364,10 +4369,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178559</v>
+        <v>112178564</v>
       </c>
       <c r="B36" t="n">
-        <v>88637</v>
+        <v>90826</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4376,25 +4381,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4404,10 +4409,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748251</v>
+        <v>748188</v>
       </c>
       <c r="R36" t="n">
-        <v>7240624</v>
+        <v>7240669</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4450,21 +4455,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4485,10 +4475,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178592</v>
+        <v>112178560</v>
       </c>
       <c r="B37" t="n">
-        <v>90860</v>
+        <v>90818</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4501,21 +4491,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>232140</v>
+        <v>4365</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4525,10 +4515,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748310</v>
+        <v>748251</v>
       </c>
       <c r="R37" t="n">
-        <v>7240610</v>
+        <v>7240623</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4561,11 +4551,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4596,10 +4581,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178584</v>
+        <v>112178585</v>
       </c>
       <c r="B38" t="n">
-        <v>90826</v>
+        <v>90814</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4612,21 +4597,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4636,10 +4621,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748269</v>
+        <v>748288</v>
       </c>
       <c r="R38" t="n">
-        <v>7240656</v>
+        <v>7240649</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4702,10 +4687,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178581</v>
+        <v>112178563</v>
       </c>
       <c r="B39" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4718,21 +4703,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4742,10 +4727,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748260</v>
+        <v>748227</v>
       </c>
       <c r="R39" t="n">
-        <v>7240674</v>
+        <v>7240629</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4808,10 +4793,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178577</v>
+        <v>112178567</v>
       </c>
       <c r="B40" t="n">
-        <v>90448</v>
+        <v>90808</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4824,21 +4809,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4745</v>
+        <v>4362</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4848,10 +4833,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748254</v>
+        <v>748177</v>
       </c>
       <c r="R40" t="n">
-        <v>7240695</v>
+        <v>7240685</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4914,10 +4899,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178568</v>
+        <v>112178551</v>
       </c>
       <c r="B41" t="n">
-        <v>90814</v>
+        <v>88180</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4926,25 +4911,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4364</v>
+        <v>6276</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4954,10 +4939,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748173</v>
+        <v>748332</v>
       </c>
       <c r="R41" t="n">
-        <v>7240697</v>
+        <v>7240583</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5020,10 +5005,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178555</v>
+        <v>112178559</v>
       </c>
       <c r="B42" t="n">
-        <v>78242</v>
+        <v>88637</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5036,21 +5021,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6453</v>
+        <v>1962</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5060,10 +5045,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>748314</v>
+        <v>748251</v>
       </c>
       <c r="R42" t="n">
-        <v>7240600</v>
+        <v>7240624</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5106,6 +5091,21 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178553</v>
+        <v>112178593</v>
       </c>
       <c r="B43" t="n">
-        <v>90826</v>
+        <v>88180</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5138,25 +5138,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4366</v>
+        <v>6276</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748324</v>
+        <v>748334</v>
       </c>
       <c r="R43" t="n">
-        <v>7240591</v>
+        <v>7240606</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178551</v>
+        <v>112178571</v>
       </c>
       <c r="B44" t="n">
-        <v>88180</v>
+        <v>90800</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5244,25 +5244,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>6276</v>
+        <v>3100</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748332</v>
+        <v>748199</v>
       </c>
       <c r="R44" t="n">
-        <v>7240583</v>
+        <v>7240733</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112182055</v>
+        <v>112182095</v>
       </c>
       <c r="B45" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5350,25 +5350,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>748350</v>
+        <v>748368</v>
       </c>
       <c r="R45" t="n">
-        <v>7240561</v>
+        <v>7240553</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112182095</v>
+        <v>112182293</v>
       </c>
       <c r="B46" t="n">
-        <v>90806</v>
+        <v>90808</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5465,26 +5465,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>748368</v>
+        <v>748041</v>
       </c>
       <c r="R46" t="n">
-        <v>7240553</v>
+        <v>7240905</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112181991</v>
+        <v>112182055</v>
       </c>
       <c r="B47" t="n">
         <v>90826</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>748209</v>
+        <v>748350</v>
       </c>
       <c r="R47" t="n">
-        <v>7240817</v>
+        <v>7240561</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112182293</v>
+        <v>112181969</v>
       </c>
       <c r="B48" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5687,26 +5687,26 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>748041</v>
+        <v>748313</v>
       </c>
       <c r="R48" t="n">
-        <v>7240905</v>
+        <v>7240629</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112181969</v>
+        <v>112182217</v>
       </c>
       <c r="B50" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5905,30 +5905,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5937,10 +5937,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>748313</v>
+        <v>748236</v>
       </c>
       <c r="R50" t="n">
-        <v>7240629</v>
+        <v>7240697</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112182217</v>
+        <v>112181991</v>
       </c>
       <c r="B51" t="n">
-        <v>90814</v>
+        <v>90826</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6020,26 +6020,26 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>748236</v>
+        <v>748209</v>
       </c>
       <c r="R51" t="n">
-        <v>7240697</v>
+        <v>7240817</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -1225,10 +1225,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178595</v>
+        <v>112178576</v>
       </c>
       <c r="B7" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1237,25 +1237,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748366</v>
+        <v>748241</v>
       </c>
       <c r="R7" t="n">
-        <v>7240561</v>
+        <v>7240707</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178592</v>
+        <v>112178595</v>
       </c>
       <c r="B8" t="n">
-        <v>90860</v>
+        <v>90808</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1343,25 +1343,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>232140</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748310</v>
+        <v>748366</v>
       </c>
       <c r="R8" t="n">
-        <v>7240610</v>
+        <v>7240561</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,11 +1407,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1442,10 +1437,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178590</v>
+        <v>112178592</v>
       </c>
       <c r="B9" t="n">
-        <v>88637</v>
+        <v>90860</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1454,25 +1449,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1962</v>
+        <v>232140</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1482,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748309</v>
+        <v>748310</v>
       </c>
       <c r="R9" t="n">
-        <v>7240608</v>
+        <v>7240610</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1518,6 +1513,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1548,10 +1548,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178576</v>
+        <v>112178590</v>
       </c>
       <c r="B10" t="n">
-        <v>90826</v>
+        <v>88637</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1560,25 +1560,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1588,10 +1588,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748241</v>
+        <v>748309</v>
       </c>
       <c r="R10" t="n">
-        <v>7240707</v>
+        <v>7240608</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -3824,10 +3824,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178566</v>
+        <v>112178572</v>
       </c>
       <c r="B31" t="n">
-        <v>90830</v>
+        <v>78242</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3840,21 +3840,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3864,10 +3864,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748179</v>
+        <v>748200</v>
       </c>
       <c r="R31" t="n">
-        <v>7240685</v>
+        <v>7240734</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3910,6 +3910,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4036,10 +4051,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178572</v>
+        <v>112178566</v>
       </c>
       <c r="B33" t="n">
-        <v>78242</v>
+        <v>90830</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4052,21 +4067,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4076,10 +4091,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748200</v>
+        <v>748179</v>
       </c>
       <c r="R33" t="n">
-        <v>7240734</v>
+        <v>7240685</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4122,21 +4137,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4581,10 +4581,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178585</v>
+        <v>112178563</v>
       </c>
       <c r="B38" t="n">
-        <v>90814</v>
+        <v>90830</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4593,25 +4593,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4621,10 +4621,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748288</v>
+        <v>748227</v>
       </c>
       <c r="R38" t="n">
-        <v>7240649</v>
+        <v>7240629</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4687,10 +4687,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178563</v>
+        <v>112178585</v>
       </c>
       <c r="B39" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4699,25 +4699,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4727,10 +4727,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748227</v>
+        <v>748288</v>
       </c>
       <c r="R39" t="n">
-        <v>7240629</v>
+        <v>7240649</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>

--- a/artfynd/A 43848-2019.xlsx
+++ b/artfynd/A 43848-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112178580</v>
+        <v>112178565</v>
       </c>
       <c r="B2" t="n">
-        <v>90808</v>
+        <v>90830</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>748255</v>
+        <v>748187</v>
       </c>
       <c r="R2" t="n">
-        <v>7240681</v>
+        <v>7240670</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112178555</v>
+        <v>112178595</v>
       </c>
       <c r="B3" t="n">
-        <v>78242</v>
+        <v>90808</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,21 +802,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>748314</v>
+        <v>748366</v>
       </c>
       <c r="R3" t="n">
-        <v>7240600</v>
+        <v>7240561</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112178569</v>
+        <v>112178553</v>
       </c>
       <c r="B4" t="n">
-        <v>90814</v>
+        <v>90826</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,21 +908,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>748176</v>
+        <v>748324</v>
       </c>
       <c r="R4" t="n">
-        <v>7240731</v>
+        <v>7240591</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112178591</v>
+        <v>112178594</v>
       </c>
       <c r="B5" t="n">
-        <v>90818</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1010,25 +1010,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4365</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1038,10 +1038,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>748309</v>
+        <v>748342</v>
       </c>
       <c r="R5" t="n">
-        <v>7240608</v>
+        <v>7240602</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1104,10 +1104,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112178561</v>
+        <v>112178592</v>
       </c>
       <c r="B6" t="n">
-        <v>91002</v>
+        <v>90860</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1116,25 +1116,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2079</v>
+        <v>232140</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1144,10 +1144,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>748250</v>
+        <v>748310</v>
       </c>
       <c r="R6" t="n">
-        <v>7240623</v>
+        <v>7240610</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1182,6 +1182,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1190,21 +1195,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1225,10 +1215,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>112178576</v>
+        <v>112178580</v>
       </c>
       <c r="B7" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1237,25 +1227,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1265,10 +1255,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>748241</v>
+        <v>748255</v>
       </c>
       <c r="R7" t="n">
-        <v>7240707</v>
+        <v>7240681</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1331,10 +1321,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112178595</v>
+        <v>112178577</v>
       </c>
       <c r="B8" t="n">
-        <v>90808</v>
+        <v>90448</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1347,21 +1337,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4362</v>
+        <v>4745</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1371,10 +1361,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>748366</v>
+        <v>748254</v>
       </c>
       <c r="R8" t="n">
-        <v>7240561</v>
+        <v>7240695</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1437,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112178592</v>
+        <v>112178550</v>
       </c>
       <c r="B9" t="n">
-        <v>90860</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1449,25 +1439,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1477,10 +1467,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>748310</v>
+        <v>748335</v>
       </c>
       <c r="R9" t="n">
-        <v>7240610</v>
+        <v>7240569</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1513,11 +1503,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Jämnsmal fot, tunn hatt, inga violetta toner i hatten</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1548,10 +1533,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112178590</v>
+        <v>112178552</v>
       </c>
       <c r="B10" t="n">
-        <v>88637</v>
+        <v>90806</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1564,21 +1549,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1588,10 +1573,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>748309</v>
+        <v>748326</v>
       </c>
       <c r="R10" t="n">
-        <v>7240608</v>
+        <v>7240591</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1654,10 +1639,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112178556</v>
+        <v>112178567</v>
       </c>
       <c r="B11" t="n">
-        <v>77403</v>
+        <v>90808</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1670,21 +1655,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1694,10 +1679,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>748311</v>
+        <v>748177</v>
       </c>
       <c r="R11" t="n">
-        <v>7240600</v>
+        <v>7240685</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1760,10 +1745,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112178574</v>
+        <v>112178583</v>
       </c>
       <c r="B12" t="n">
-        <v>90826</v>
+        <v>90800</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1772,25 +1757,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1800,10 +1785,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>748216</v>
+        <v>748268</v>
       </c>
       <c r="R12" t="n">
-        <v>7240707</v>
+        <v>7240657</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1866,10 +1851,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112178594</v>
+        <v>112178566</v>
       </c>
       <c r="B13" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1882,21 +1867,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1906,10 +1891,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>748342</v>
+        <v>748179</v>
       </c>
       <c r="R13" t="n">
-        <v>7240602</v>
+        <v>7240685</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,10 +1957,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112178596</v>
+        <v>112178578</v>
       </c>
       <c r="B14" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1984,25 +1969,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2012,10 +1997,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>748366</v>
+        <v>748254</v>
       </c>
       <c r="R14" t="n">
-        <v>7240547</v>
+        <v>7240694</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,10 +2063,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112178550</v>
+        <v>112178596</v>
       </c>
       <c r="B15" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2090,25 +2075,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2118,10 +2103,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>748335</v>
+        <v>748366</v>
       </c>
       <c r="R15" t="n">
-        <v>7240569</v>
+        <v>7240547</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2184,10 +2169,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112178562</v>
+        <v>112178561</v>
       </c>
       <c r="B16" t="n">
-        <v>89820</v>
+        <v>91002</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2196,25 +2181,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>71</v>
+        <v>2079</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2224,10 +2209,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>748243</v>
+        <v>748250</v>
       </c>
       <c r="R16" t="n">
-        <v>7240626</v>
+        <v>7240623</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2260,11 +2245,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>eller A. primaeva</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2310,10 +2290,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112178568</v>
+        <v>112178570</v>
       </c>
       <c r="B17" t="n">
-        <v>90814</v>
+        <v>90448</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2322,25 +2302,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>4745</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius musteus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2350,10 +2330,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>748173</v>
+        <v>748188</v>
       </c>
       <c r="R17" t="n">
-        <v>7240697</v>
+        <v>7240735</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2416,10 +2396,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>112178554</v>
+        <v>112178582</v>
       </c>
       <c r="B18" t="n">
-        <v>88180</v>
+        <v>88637</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2428,25 +2408,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6276</v>
+        <v>1962</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2456,10 +2436,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>748323</v>
+        <v>748264</v>
       </c>
       <c r="R18" t="n">
-        <v>7240592</v>
+        <v>7240666</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2502,6 +2482,21 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2522,10 +2517,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112178579</v>
+        <v>112178584</v>
       </c>
       <c r="B19" t="n">
-        <v>90857</v>
+        <v>90826</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2534,25 +2529,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2562,10 +2557,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>748251</v>
+        <v>748269</v>
       </c>
       <c r="R19" t="n">
-        <v>7240686</v>
+        <v>7240656</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2628,10 +2623,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112178583</v>
+        <v>112178563</v>
       </c>
       <c r="B20" t="n">
-        <v>90800</v>
+        <v>90830</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2644,21 +2639,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2668,10 +2663,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>748268</v>
+        <v>748227</v>
       </c>
       <c r="R20" t="n">
-        <v>7240657</v>
+        <v>7240629</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2734,10 +2729,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>112178584</v>
+        <v>112178556</v>
       </c>
       <c r="B21" t="n">
-        <v>90826</v>
+        <v>77403</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2746,25 +2741,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2774,10 +2769,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>748269</v>
+        <v>748311</v>
       </c>
       <c r="R21" t="n">
-        <v>7240656</v>
+        <v>7240600</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2840,10 +2835,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>112178565</v>
+        <v>112178554</v>
       </c>
       <c r="B22" t="n">
-        <v>90830</v>
+        <v>88180</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2852,25 +2847,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>6276</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2880,10 +2875,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>748187</v>
+        <v>748323</v>
       </c>
       <c r="R22" t="n">
-        <v>7240670</v>
+        <v>7240592</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2946,10 +2941,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112178558</v>
+        <v>112178589</v>
       </c>
       <c r="B23" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2962,21 +2957,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2986,7 +2981,7 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>748269</v>
+        <v>748304</v>
       </c>
       <c r="R23" t="n">
         <v>7240615</v>
@@ -3052,10 +3047,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112178588</v>
+        <v>112178576</v>
       </c>
       <c r="B24" t="n">
-        <v>90806</v>
+        <v>90826</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3064,25 +3059,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3092,10 +3087,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>748304</v>
+        <v>748241</v>
       </c>
       <c r="R24" t="n">
-        <v>7240615</v>
+        <v>7240707</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3158,10 +3153,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112178582</v>
+        <v>112178564</v>
       </c>
       <c r="B25" t="n">
-        <v>88637</v>
+        <v>90826</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3170,25 +3165,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>4366</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3198,10 +3193,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>748264</v>
+        <v>748188</v>
       </c>
       <c r="R25" t="n">
-        <v>7240666</v>
+        <v>7240669</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3244,21 +3239,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3279,10 +3259,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112178581</v>
+        <v>112178593</v>
       </c>
       <c r="B26" t="n">
-        <v>90806</v>
+        <v>88180</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3291,25 +3271,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4361</v>
+        <v>6276</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3319,10 +3299,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>748260</v>
+        <v>748334</v>
       </c>
       <c r="R26" t="n">
-        <v>7240674</v>
+        <v>7240606</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3385,10 +3365,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112178570</v>
+        <v>112178568</v>
       </c>
       <c r="B27" t="n">
-        <v>90448</v>
+        <v>90814</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3397,25 +3377,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4745</v>
+        <v>4364</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3425,10 +3405,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>748188</v>
+        <v>748173</v>
       </c>
       <c r="R27" t="n">
-        <v>7240735</v>
+        <v>7240697</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3491,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112178587</v>
+        <v>112178551</v>
       </c>
       <c r="B28" t="n">
-        <v>78216</v>
+        <v>88180</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3503,25 +3483,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>229821</v>
+        <v>6276</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3531,10 +3511,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>748309</v>
+        <v>748332</v>
       </c>
       <c r="R28" t="n">
-        <v>7240616</v>
+        <v>7240583</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3577,21 +3557,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3612,10 +3577,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>112178553</v>
+        <v>112178558</v>
       </c>
       <c r="B29" t="n">
-        <v>90826</v>
+        <v>90806</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3624,25 +3589,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3652,10 +3617,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>748324</v>
+        <v>748269</v>
       </c>
       <c r="R29" t="n">
-        <v>7240591</v>
+        <v>7240615</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3718,10 +3683,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112178577</v>
+        <v>112178562</v>
       </c>
       <c r="B30" t="n">
-        <v>90448</v>
+        <v>89820</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3730,25 +3695,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4745</v>
+        <v>71</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tallriska</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lactarius musteus</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Fr.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3758,10 +3723,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>748254</v>
+        <v>748243</v>
       </c>
       <c r="R30" t="n">
-        <v>7240695</v>
+        <v>7240626</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3796,6 +3761,11 @@
           <t>2023-09-15</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>eller A. primaeva</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
@@ -3804,6 +3774,21 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3824,10 +3809,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112178572</v>
+        <v>112178587</v>
       </c>
       <c r="B31" t="n">
-        <v>78242</v>
+        <v>78216</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3840,21 +3825,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6453</v>
+        <v>229821</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3864,10 +3849,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>748200</v>
+        <v>748309</v>
       </c>
       <c r="R31" t="n">
-        <v>7240734</v>
+        <v>7240616</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3945,10 +3930,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112178552</v>
+        <v>112178572</v>
       </c>
       <c r="B32" t="n">
-        <v>90806</v>
+        <v>78242</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3961,21 +3946,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3985,10 +3970,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>748326</v>
+        <v>748200</v>
       </c>
       <c r="R32" t="n">
-        <v>7240591</v>
+        <v>7240734</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4031,6 +4016,21 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4051,10 +4051,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>112178566</v>
+        <v>112178559</v>
       </c>
       <c r="B33" t="n">
-        <v>90830</v>
+        <v>88637</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4067,21 +4067,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>748179</v>
+        <v>748251</v>
       </c>
       <c r="R33" t="n">
-        <v>7240685</v>
+        <v>7240624</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4137,6 +4137,21 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4157,10 +4172,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112178589</v>
+        <v>112178588</v>
       </c>
       <c r="B34" t="n">
-        <v>90830</v>
+        <v>90806</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4173,21 +4188,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4263,10 +4278,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112178578</v>
+        <v>112178590</v>
       </c>
       <c r="B35" t="n">
-        <v>90826</v>
+        <v>88637</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4275,25 +4290,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4366</v>
+        <v>1962</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4303,10 +4318,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>748254</v>
+        <v>748309</v>
       </c>
       <c r="R35" t="n">
-        <v>7240694</v>
+        <v>7240608</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4369,10 +4384,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112178564</v>
+        <v>112178591</v>
       </c>
       <c r="B36" t="n">
-        <v>90826</v>
+        <v>90818</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4381,25 +4396,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4409,10 +4424,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>748188</v>
+        <v>748309</v>
       </c>
       <c r="R36" t="n">
-        <v>7240669</v>
+        <v>7240608</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4475,10 +4490,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112178560</v>
+        <v>112178585</v>
       </c>
       <c r="B37" t="n">
-        <v>90818</v>
+        <v>90814</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4487,25 +4502,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4515,10 +4530,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>748251</v>
+        <v>748288</v>
       </c>
       <c r="R37" t="n">
-        <v>7240623</v>
+        <v>7240649</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4581,10 +4596,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>112178563</v>
+        <v>112178555</v>
       </c>
       <c r="B38" t="n">
-        <v>90830</v>
+        <v>78242</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4597,21 +4612,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4621,10 +4636,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>748227</v>
+        <v>748314</v>
       </c>
       <c r="R38" t="n">
-        <v>7240629</v>
+        <v>7240600</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4687,10 +4702,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>112178585</v>
+        <v>112178571</v>
       </c>
       <c r="B39" t="n">
-        <v>90814</v>
+        <v>90800</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4699,25 +4714,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4364</v>
+        <v>3100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4727,10 +4742,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>748288</v>
+        <v>748199</v>
       </c>
       <c r="R39" t="n">
-        <v>7240649</v>
+        <v>7240733</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4793,10 +4808,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>112178567</v>
+        <v>112178574</v>
       </c>
       <c r="B40" t="n">
-        <v>90808</v>
+        <v>90826</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4805,25 +4820,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4833,10 +4848,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>748177</v>
+        <v>748216</v>
       </c>
       <c r="R40" t="n">
-        <v>7240685</v>
+        <v>7240707</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4899,10 +4914,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>112178551</v>
+        <v>112178569</v>
       </c>
       <c r="B41" t="n">
-        <v>88180</v>
+        <v>90814</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4911,25 +4926,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6276</v>
+        <v>4364</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4939,10 +4954,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>748332</v>
+        <v>748176</v>
       </c>
       <c r="R41" t="n">
-        <v>7240583</v>
+        <v>7240731</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5005,10 +5020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>112178559</v>
+        <v>112178560</v>
       </c>
       <c r="B42" t="n">
-        <v>88637</v>
+        <v>90818</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5017,25 +5032,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1962</v>
+        <v>4365</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5048,7 +5063,7 @@
         <v>748251</v>
       </c>
       <c r="R42" t="n">
-        <v>7240624</v>
+        <v>7240623</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5091,21 +5106,6 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5126,10 +5126,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>112178593</v>
+        <v>112178579</v>
       </c>
       <c r="B43" t="n">
-        <v>88180</v>
+        <v>90857</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5138,25 +5138,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6276</v>
+        <v>5448</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5166,10 +5166,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>748334</v>
+        <v>748251</v>
       </c>
       <c r="R43" t="n">
-        <v>7240606</v>
+        <v>7240686</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5232,10 +5232,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>112178571</v>
+        <v>112178581</v>
       </c>
       <c r="B44" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5248,21 +5248,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5272,10 +5272,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>748199</v>
+        <v>748260</v>
       </c>
       <c r="R44" t="n">
-        <v>7240733</v>
+        <v>7240674</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5338,10 +5338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>112182095</v>
+        <v>112181969</v>
       </c>
       <c r="B45" t="n">
-        <v>90806</v>
+        <v>90830</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5354,26 +5354,26 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>748368</v>
+        <v>748313</v>
       </c>
       <c r="R45" t="n">
-        <v>7240553</v>
+        <v>7240629</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>112182293</v>
+        <v>112182095</v>
       </c>
       <c r="B46" t="n">
-        <v>90808</v>
+        <v>90806</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5465,26 +5465,26 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5493,10 +5493,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>748041</v>
+        <v>748368</v>
       </c>
       <c r="R46" t="n">
-        <v>7240905</v>
+        <v>7240553</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>112182055</v>
+        <v>112181991</v>
       </c>
       <c r="B47" t="n">
         <v>90826</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5604,10 +5604,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>748350</v>
+        <v>748209</v>
       </c>
       <c r="R47" t="n">
-        <v>7240561</v>
+        <v>7240817</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>112181969</v>
+        <v>112182217</v>
       </c>
       <c r="B48" t="n">
-        <v>90830</v>
+        <v>90814</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5683,30 +5683,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2059</v>
+        <v>4364</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>748313</v>
+        <v>748236</v>
       </c>
       <c r="R48" t="n">
-        <v>7240629</v>
+        <v>7240697</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>112182217</v>
+        <v>112182055</v>
       </c>
       <c r="B50" t="n">
-        <v>90814</v>
+        <v>90826</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5909,21 +5909,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -5937,10 +5937,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>748236</v>
+        <v>748350</v>
       </c>
       <c r="R50" t="n">
-        <v>7240697</v>
+        <v>7240561</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>112181991</v>
+        <v>112182293</v>
       </c>
       <c r="B51" t="n">
-        <v>90826</v>
+        <v>90808</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6016,30 +6016,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6048,10 +6048,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>748209</v>
+        <v>748041</v>
       </c>
       <c r="R51" t="n">
-        <v>7240817</v>
+        <v>7240905</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
